--- a/UserManual/CMD_Manual.xlsx
+++ b/UserManual/CMD_Manual.xlsx
@@ -8,7 +8,7 @@
   </bookViews>
   <sheets>
     <sheet name="命令查询表" sheetId="1" r:id="rId1"/>
-    <sheet name="示例" sheetId="3" r:id="rId2"/>
+    <sheet name="使用示例" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="172">
   <si>
     <t>type=info</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -30,22 +30,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>key=device-disk</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>key=device-men</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>key=device-nic</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>key=ntp-status</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>key=nic-traffic</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -70,10 +54,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>key=file-infos</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>key=file-remove</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -114,15 +94,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>value=20161212</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>dst=10.10.88.173:/home/test</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>unfilter=p1p3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -229,33 +201,6 @@
         <scheme val="minor"/>
       </rPr>
       <t>/home/pcap/123.pcap</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>value=p1p2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>#</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>p2p3</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -369,10 +314,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>定时启动3600秒后自动停止</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>type=filter</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -477,18 +418,12 @@
     <t>抓包命令测试(默认抓取配置文件中的网卡信息):</t>
   </si>
   <si>
-    <t>curl -d "type=pcap&amp;key=start" http://10.10.88.173:1234</t>
-  </si>
-  <si>
     <t>curl -d "type=pcap&amp;key=status" http://10.10.88.173:1234</t>
   </si>
   <si>
     <t>curl -d "type=pcap&amp;key=status&amp;pid=1234" http://10.10.88.173:1234</t>
   </si>
   <si>
-    <t>curl -d "type=pcap&amp;key=stop" http://10.10.88.173:1234</t>
-  </si>
-  <si>
     <t>curl -d "type=pcap&amp;key=stop&amp;pid=1234" http://10.10.88.173:1234</t>
   </si>
   <si>
@@ -507,9 +442,6 @@
     <t>curl -d "type=parse&amp;key=status&amp;pid=1234" http://10.10.88.173:1234</t>
   </si>
   <si>
-    <t>curl -d "type=parse&amp;key=stop" http://10.10.88.173:1234</t>
-  </si>
-  <si>
     <t>curl -d "type=parse&amp;key=stop&amp;pid=1234" http://10.10.88.173:1234</t>
   </si>
   <si>
@@ -561,9 +493,6 @@
     <t>curl -d "type=trans&amp;key=stop&amp;pid=1234" http://10.10.88.173:1234</t>
   </si>
   <si>
-    <t>文件删除测试:</t>
-  </si>
-  <si>
     <t>curl -d "type=remove&amp;src=/backup/123.pcap" http://10.10.88.173:1234</t>
   </si>
   <si>
@@ -591,24 +520,9 @@
     <t>curl -d "type=req&amp;key=file-remove&amp;src=/backup/test.pcap&amp;filter=201505" http://10.10.88.173:1234</t>
   </si>
   <si>
-    <t>信息查询:</t>
-  </si>
-  <si>
-    <t>curl -d "type=info&amp;key=file-infos&amp;" http://10.10.88.173:1234</t>
-  </si>
-  <si>
     <t>数据包过滤：</t>
   </si>
   <si>
-    <t>curl -d "type=parse&amp;key=start&amp;value=20161217" http://10.10.124.228:1234</t>
-  </si>
-  <si>
-    <t>curl -d "type=parse&amp;key=status" http://10.10.124.229:1234</t>
-  </si>
-  <si>
-    <t>curl -d "type=parse&amp;key=status" http://10.10.124.228:1234</t>
-  </si>
-  <si>
     <t>curl -d "type=trans&amp;key=status" http://10.10.124.229:1234</t>
   </si>
   <si>
@@ -619,14 +533,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>curl -d "type=trans&amp;key=start&amp;value=csv&amp;filter=20161217&amp;dst=10.10.124.228:/root/guopai/result" http://10.10.124.228:1234</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>curl -d "type=parse&amp;key=start&amp;value=20161217&amp;nofilter=p2p3" http://10.10.124.229:1234</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>只分析20161217的数据包，且不分析p2p3的网卡</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -643,23 +549,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>curl -d "type=trans&amp;key=start&amp;value=csv&amp;filter=20161217&amp;dst=10.10.124.228:/root/guopai/reslut" http://10.10.124.229:1234</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>传输20161217日的分析结果文件，到10.10.124.228:/root/guopai/reslut目录下</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>curl -d "type=filter&amp;key=start&amp;value=/backup/20161218_164942_em2.pcap&amp;exp=\"dst port 22\"" http://10.10.88.173:1234</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>过滤出/backup/20161218_164942_em2.pcap数据包中目的端口号为22的数据包</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>curl -d "type=trans&amp;key=start&amp;value=filterpcap&amp;filter=20161217&amp;dst=10.10.88.173:/root/guopai/filterpcap" http://10.10.88.173:1234</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -741,6 +635,300 @@
   </si>
   <si>
     <t>文件过滤命令</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>curl -d "type=trans&amp;key=start&amp;value=csv&amp;filter=20161217&amp;dst=10.10.124.228:/root/guopai/result" http://10.10.124.228:1234</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>curl -d "type=filter&amp;key=start&amp;value=/backup/20161218_164942_em2.pcap&amp;exp=\"dst port 22\"" http://10.10.88.173:1234</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>curl -d "type=pcap&amp;key=start" http://10.10.88.173:1234</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>curl -d "type=pcap&amp;key=stop" http://10.10.88.173:1234</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>curl -d "type=pcap&amp;key=status" http://10.10.88.173:1234</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>curl -d "type=trans&amp;key=start&amp;value=filterpcap&amp;filter=20161217&amp;dst=10.10.88.173:/root/guopai/filterpcap" http://10.10.88.173:1234</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>curl -d "type=parse&amp;key=stop" http://10.10.88.173:1234</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>curl -d "type=trans&amp;key=start&amp;value=csv&amp;filter=20161217&amp;dst=10.10.124.228:/root/guopai/result" http://10.10.124.229:1234</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>curl -d "type=parse&amp;key=status" http://10.10.124.229:1234</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>curl -d "type=parse&amp;key=start&amp;value=20161217&amp;nofilter=p2p3" http://10.10.124.229:1234</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>curl -d "type=parse&amp;key=status" http://10.10.124.228:1234</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>curl -d "type=parse&amp;key=start&amp;value=20161217" http://10.10.124.228:1234</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>key=ntp-status</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>key=device-disk</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"device-cpu": 0.0}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"device-disk": {"total": 53660876800, "used": 10315223040, "free": 43345653760, "percent": 19.2}}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>返回JSON数据格式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>百分比</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>curl -d "type=info&amp;key=device-disk" http://10.10.88.173:1234</t>
+  </si>
+  <si>
+    <t>key=device-mem</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"device-mem": {"total": 67271380992, "available": 65895313408, "percent": 2.0, "used": 1040871424, "free": 65713377280, "active": 254767104, "inactive": 290430976, "buffers": 1409024, "cached": 515723264, "shared": 41504768}}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字节</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">curl -d "type=info&amp;key=device-men" http://10.10.88.173:1234 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">curl -d "type=info&amp;key=device-nic" http://10.10.88.173:1234 </t>
+  </si>
+  <si>
+    <t>key=device-nic</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"device-nic": [{"ip": "10.10.88.173", "mac": "f4:e9:d4:8c:e2:a2", "name": "p5p2", "controller-ip": ""}, {"ip": "", "mac": "14:18:77:59:51:22", "name": "em2", "controller-ip": ""}]}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>正常</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>非正常</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>返回抓包服务器时间同步是否开启</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>unfilter=p2p3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>value=20161212</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>value=csv</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>key=nic-traffic</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>key=file-infos</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>src=/home/pcap/123.pcap</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>#</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/home/pcap/123.pcap</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>value=pcap</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>value=log</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>value=p5p2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>#</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>em2</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"nic-traffic": [{"packet-errors": 0, "mac": "f4:e9:d4:8c:e2:a2", "name": "p5p2", "time": 1482244304.050147, "packet-counts": 107632104293, "ip": "10.10.88.173", "total-bytes": 72437640, "packet-drops": 334, "controller-ip": ""}, {"packet-errors": 0, "mac": "14:18:77:59:51:22", "name": "em2", "time": 1482244304.050158, "packet-counts": 0, "ip": "", "total-bytes": 0, "packet-drops": 0, "controller-ip": ""}]}</t>
+  </si>
+  <si>
+    <t>{"file-infos": [{"path": "/backup", "size": 24, "ctime": 1482235429.2461784, "name": "173_20161220_200349_em2.pcap", "mtime": 1482235429.2461784}, {"path": "/backup", "size": 15314, "ctime": 1482235456.2092028, "name": "173_20161220_200349_p5p2.pcap", "mtime": 1482235456.2092028}]}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">curl -d "type=info&amp;key=device-cpu" http://10.10.88.173:1234  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">curl -d "type=info&amp;key=ntp-status" http://10.10.88.173:1234 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">curl -d "type=info&amp;key=nic-traffic" http://10.10.88.173:1234 </t>
+  </si>
+  <si>
+    <t>信息查询命令(返回默认信息):</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>文件删除测试:</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>filter=20161212#md5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dst=10.10.88.173:/home/test</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"pid": "30593"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"status": "running"} 或者 {"status": "end"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"status": "success"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>running表示正在运行；end表示程序运行结束</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>非法的命令请求</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"error-info": "pcap-statu4s error type!"}</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> type=pcap&amp;key=statu4s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"nic-traffic": [{"packet-errors": 0, "mac": "f4:e9:d4:8c:e2:a2", "name": "p5p2", "time": 1482241355.491839, "packet-counts": 107631257404, "ip": "10.10.88.173", "total-bytes": 72430680, "packet-drops": 236, "controller-ip": ""}, {"packet-errors": 0, "mac": "14:18:77:59:51:22", "name": "em2", "time": 1482241355.491851, "packet-counts": 0, "ip": "", "total-bytes": 0, "packet-drops": 0, "controller-ip": ""}]}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"file-remove": true}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"ntp-status": "off"} 或 {"ntp-status": "on"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>同步服务开启则返回on</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>返回执行程序对应的PID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>定时启动3600秒后自动停止</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -840,7 +1028,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -865,6 +1053,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -878,55 +1072,109 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1217,734 +1465,978 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F73"/>
+  <dimension ref="A1:H82"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="18.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="61.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="48" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="26" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.875" style="19" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.625" style="19" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="61.5" style="19" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="38.5" style="19" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.375" style="19" customWidth="1"/>
+    <col min="6" max="6" width="38.5" style="19" customWidth="1"/>
+    <col min="7" max="7" width="16.375" style="19" customWidth="1"/>
+    <col min="8" max="8" width="42" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" s="21" t="s">
+    <row r="1" spans="1:8">
+      <c r="A1" s="32" t="s">
+        <v>99</v>
+      </c>
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+    </row>
+    <row r="2" spans="1:8" ht="51" customHeight="1">
+      <c r="A2" s="30" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2" s="31"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="25"/>
+      <c r="H2" s="9"/>
+    </row>
+    <row r="3" spans="1:8" ht="45" customHeight="1">
+      <c r="A3" s="33" t="s">
+        <v>29</v>
+      </c>
+      <c r="B3" s="33"/>
+      <c r="C3" s="33"/>
+      <c r="D3" s="33"/>
+      <c r="E3" s="33"/>
+      <c r="F3" s="25"/>
+      <c r="G3" s="25"/>
+      <c r="H3" s="9"/>
+    </row>
+    <row r="4" spans="1:8" s="4" customFormat="1">
+      <c r="A4" s="10"/>
+      <c r="B4" s="10"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="36" t="s">
+        <v>124</v>
+      </c>
+      <c r="G4" s="36"/>
+      <c r="H4" s="36" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" s="4" customFormat="1">
+      <c r="A5" s="10"/>
+      <c r="B5" s="10"/>
+      <c r="C5" s="10"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="20" t="s">
+        <v>136</v>
+      </c>
+      <c r="G5" s="20" t="s">
+        <v>137</v>
+      </c>
+      <c r="H5" s="36"/>
+    </row>
+    <row r="6" spans="1:8" s="7" customFormat="1">
+      <c r="A6" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="B6" s="8"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="29" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="D7" s="11"/>
+      <c r="F7" s="19" t="s">
         <v>122</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-    </row>
-    <row r="2" spans="1:6" ht="51" customHeight="1">
-      <c r="A2" s="20" t="s">
+      <c r="G7" s="19" t="s">
+        <v>135</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="29"/>
+      <c r="B8" s="19" t="s">
+        <v>121</v>
+      </c>
+      <c r="C8" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" s="11"/>
+      <c r="F8" s="19" t="s">
+        <v>123</v>
+      </c>
+      <c r="G8" s="19" t="s">
+        <v>135</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="29"/>
+      <c r="B9" s="19" t="s">
+        <v>128</v>
+      </c>
+      <c r="D9" s="11"/>
+      <c r="F9" s="19" t="s">
+        <v>129</v>
+      </c>
+      <c r="G9" s="19" t="s">
+        <v>135</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="29"/>
+      <c r="B10" s="19" t="s">
+        <v>133</v>
+      </c>
+      <c r="C10" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" s="11"/>
+      <c r="F10" s="19" t="s">
+        <v>134</v>
+      </c>
+      <c r="G10" s="19" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="29"/>
+      <c r="B11" s="19" t="s">
+        <v>120</v>
+      </c>
+      <c r="C11" s="19" t="s">
+        <v>138</v>
+      </c>
+      <c r="D11" s="11"/>
+      <c r="F11" s="19" t="s">
+        <v>166</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="29"/>
+      <c r="B12" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="C12" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="D12" s="11"/>
+      <c r="F12" s="19" t="s">
+        <v>164</v>
+      </c>
+      <c r="G12" s="19" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="D13" s="11"/>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="D14" s="11"/>
+    </row>
+    <row r="15" spans="1:8" s="7" customFormat="1">
+      <c r="A15" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="B15" s="8"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="14"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16" s="19" t="s">
+        <v>133</v>
+      </c>
+      <c r="C16" s="19" t="s">
+        <v>147</v>
+      </c>
+      <c r="D16" s="11"/>
+      <c r="F16" s="19" t="s">
+        <v>134</v>
+      </c>
+      <c r="G16" s="19" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="34"/>
+      <c r="B17" s="19" t="s">
+        <v>142</v>
+      </c>
+      <c r="C17" s="19" t="s">
+        <v>147</v>
+      </c>
+      <c r="D17" s="11"/>
+      <c r="F17" s="22" t="s">
+        <v>148</v>
+      </c>
+      <c r="G17" s="19" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="34"/>
+      <c r="B18" s="35" t="s">
+        <v>143</v>
+      </c>
+      <c r="C18" s="19" t="s">
+        <v>145</v>
+      </c>
+      <c r="D18" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F18" s="37" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="34"/>
+      <c r="B19" s="35"/>
+      <c r="C19" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="D19" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F19" s="37"/>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="34"/>
+      <c r="B20" s="35"/>
+      <c r="C20" s="19" t="s">
+        <v>141</v>
+      </c>
+      <c r="D20" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F20" s="37"/>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="34"/>
+      <c r="B21" s="35"/>
+      <c r="C21" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="D21" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="B2" s="16"/>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-    </row>
-    <row r="3" spans="1:6" ht="45" customHeight="1">
-      <c r="A3" s="22" t="s">
+      <c r="F21" s="37"/>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="34"/>
+      <c r="B22" s="35"/>
+      <c r="C22" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" s="11"/>
+      <c r="F22" s="37"/>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="34"/>
+      <c r="B23" s="35"/>
+      <c r="C23" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="D23" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F23" s="37"/>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="34"/>
+      <c r="B24" s="35" t="s">
+        <v>8</v>
+      </c>
+      <c r="C24" s="19" t="s">
+        <v>145</v>
+      </c>
+      <c r="D24" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="F24" s="35" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="34"/>
+      <c r="B25" s="35"/>
+      <c r="C25" s="19" t="s">
+        <v>146</v>
+      </c>
+      <c r="D25" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F25" s="35"/>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="34"/>
+      <c r="B26" s="35"/>
+      <c r="C26" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="D26" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F26" s="35"/>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" s="34"/>
+      <c r="B27" s="35"/>
+      <c r="C27" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="D27" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F27" s="35"/>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" s="34"/>
+      <c r="B28" s="35"/>
+      <c r="C28" s="23" t="s">
+        <v>144</v>
+      </c>
+      <c r="D28" s="12"/>
+      <c r="F28" s="35"/>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" s="34"/>
+      <c r="B29" s="35"/>
+      <c r="C29" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F29" s="35"/>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="D30" s="12"/>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="D31" s="12"/>
+    </row>
+    <row r="32" spans="1:7" s="7" customFormat="1">
+      <c r="A32" s="13" t="s">
+        <v>102</v>
+      </c>
+      <c r="B32" s="8"/>
+      <c r="C32" s="8"/>
+      <c r="D32" s="15"/>
+      <c r="E32" s="8"/>
+      <c r="F32" s="8"/>
+      <c r="G32" s="8"/>
+    </row>
+    <row r="33" spans="1:8">
+      <c r="A33" s="38" t="s">
+        <v>4</v>
+      </c>
+      <c r="B33" s="35" t="s">
+        <v>13</v>
+      </c>
+      <c r="C33" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="D33" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="E33" s="19" t="s">
+        <v>171</v>
+      </c>
+      <c r="F33" s="35" t="s">
+        <v>157</v>
+      </c>
+      <c r="H33" s="26" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
+      <c r="A34" s="38"/>
+      <c r="B34" s="35"/>
+      <c r="C34" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="D34" s="12"/>
+      <c r="F34" s="35"/>
+      <c r="H34" s="26"/>
+    </row>
+    <row r="35" spans="1:8">
+      <c r="A35" s="38"/>
+      <c r="B35" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="C35" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D35" s="16"/>
+      <c r="F35" s="35" t="s">
+        <v>158</v>
+      </c>
+      <c r="H35" s="37" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
+      <c r="A36" s="38"/>
+      <c r="B36" s="35"/>
+      <c r="C36" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D36" s="16"/>
+      <c r="F36" s="35"/>
+      <c r="H36" s="37"/>
+    </row>
+    <row r="37" spans="1:8">
+      <c r="A37" s="38"/>
+      <c r="B37" s="35" t="s">
+        <v>14</v>
+      </c>
+      <c r="C37" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D37" s="16"/>
+      <c r="F37" s="35" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
+      <c r="A38" s="38"/>
+      <c r="B38" s="35"/>
+      <c r="C38" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D38" s="16"/>
+      <c r="F38" s="35"/>
+    </row>
+    <row r="39" spans="1:8">
+      <c r="A39" s="8"/>
+      <c r="C39" s="5"/>
+      <c r="D39" s="16"/>
+    </row>
+    <row r="40" spans="1:8">
+      <c r="D40" s="16"/>
+    </row>
+    <row r="41" spans="1:8" s="7" customFormat="1">
+      <c r="A41" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="B41" s="8"/>
+      <c r="C41" s="8"/>
+      <c r="D41" s="17"/>
+      <c r="E41" s="8"/>
+      <c r="F41" s="8"/>
+      <c r="G41" s="8"/>
+    </row>
+    <row r="42" spans="1:8">
+      <c r="A42" s="34" t="s">
+        <v>5</v>
+      </c>
+      <c r="B42" s="35" t="s">
+        <v>13</v>
+      </c>
+      <c r="C42" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="D42" s="16"/>
+      <c r="F42" s="35" t="s">
+        <v>157</v>
+      </c>
+      <c r="H42" s="37" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
+      <c r="A43" s="34"/>
+      <c r="B43" s="35"/>
+      <c r="C43" s="19" t="s">
+        <v>140</v>
+      </c>
+      <c r="D43" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="F43" s="35"/>
+      <c r="H43" s="37"/>
+    </row>
+    <row r="44" spans="1:8">
+      <c r="A44" s="34"/>
+      <c r="B44" s="35"/>
+      <c r="C44" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="D44" s="16"/>
+      <c r="F44" s="35"/>
+      <c r="H44" s="37"/>
+    </row>
+    <row r="45" spans="1:8">
+      <c r="A45" s="34"/>
+      <c r="B45" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="C45" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D45" s="16"/>
+      <c r="F45" s="35" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
+      <c r="A46" s="34"/>
+      <c r="B46" s="35"/>
+      <c r="C46" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D46" s="16"/>
+      <c r="F46" s="35"/>
+    </row>
+    <row r="47" spans="1:8">
+      <c r="A47" s="34"/>
+      <c r="B47" s="35" t="s">
+        <v>14</v>
+      </c>
+      <c r="C47" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D47" s="16"/>
+      <c r="F47" s="35" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
+      <c r="A48" s="34"/>
+      <c r="B48" s="35"/>
+      <c r="C48" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D48" s="16"/>
+      <c r="F48" s="35"/>
+    </row>
+    <row r="49" spans="1:8">
+      <c r="D49" s="16"/>
+    </row>
+    <row r="50" spans="1:8">
+      <c r="D50" s="16"/>
+    </row>
+    <row r="51" spans="1:8" s="7" customFormat="1">
+      <c r="A51" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="B51" s="8"/>
+      <c r="C51" s="8"/>
+      <c r="D51" s="17"/>
+      <c r="E51" s="8"/>
+      <c r="F51" s="8"/>
+      <c r="G51" s="8"/>
+    </row>
+    <row r="52" spans="1:8">
+      <c r="A52" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="B52" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="C52" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="D52" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="E52" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="F52" s="35" t="s">
+        <v>157</v>
+      </c>
+      <c r="H52" s="5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
+      <c r="A53" s="29"/>
+      <c r="B53" s="27"/>
+      <c r="C53" s="23" t="s">
+        <v>146</v>
+      </c>
+      <c r="D53" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="E53" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F53" s="35"/>
+      <c r="H53" s="6" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
+      <c r="A54" s="29"/>
+      <c r="B54" s="27"/>
+      <c r="C54" s="23" t="s">
+        <v>141</v>
+      </c>
+      <c r="D54" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="E54" s="12" t="s">
+        <v>155</v>
+      </c>
+      <c r="F54" s="35"/>
+      <c r="H54" s="6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
+      <c r="A55" s="29"/>
+      <c r="B55" s="27"/>
+      <c r="C55" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="D55" s="23" t="s">
+        <v>156</v>
+      </c>
+      <c r="E55" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F55" s="35"/>
+      <c r="H55" s="6" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
+      <c r="A56" s="29"/>
+      <c r="B56" s="27"/>
+      <c r="C56" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D56" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="E56" s="12"/>
+      <c r="F56" s="35"/>
+      <c r="H56" s="6" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
+      <c r="A57" s="29"/>
+      <c r="B57" s="27"/>
+      <c r="C57" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="D57" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="E57" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F57" s="35"/>
+      <c r="H57" s="6" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
+      <c r="A58" s="29"/>
+      <c r="B58" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="C58" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D58" s="12"/>
+      <c r="F58" s="35" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
+      <c r="A59" s="29"/>
+      <c r="B59" s="28"/>
+      <c r="C59" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D59" s="12"/>
+      <c r="F59" s="35"/>
+    </row>
+    <row r="60" spans="1:8">
+      <c r="A60" s="29"/>
+      <c r="B60" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="C60" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D60" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="F60" s="35" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
+      <c r="A61" s="29"/>
+      <c r="B61" s="27"/>
+      <c r="C61" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="F61" s="35"/>
+    </row>
+    <row r="64" spans="1:8" s="7" customFormat="1">
+      <c r="A64" s="13" t="s">
+        <v>106</v>
+      </c>
+      <c r="B64" s="8"/>
+      <c r="C64" s="8"/>
+      <c r="D64" s="8"/>
+      <c r="E64" s="8"/>
+      <c r="F64" s="8"/>
+      <c r="G64" s="8"/>
+    </row>
+    <row r="65" spans="1:8">
+      <c r="A65" s="34" t="s">
+        <v>7</v>
+      </c>
+      <c r="B65" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="C65" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="F65" s="35" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
+      <c r="A66" s="34"/>
+      <c r="B66" s="27"/>
+      <c r="C66" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="F66" s="35"/>
+    </row>
+    <row r="67" spans="1:8">
+      <c r="A67" s="34"/>
+      <c r="B67" s="27" t="s">
+        <v>15</v>
+      </c>
+      <c r="C67" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="F67" s="35" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
+      <c r="A68" s="34"/>
+      <c r="B68" s="27"/>
+      <c r="C68" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D68" s="12"/>
+      <c r="F68" s="35"/>
+    </row>
+    <row r="69" spans="1:8">
+      <c r="A69" s="34"/>
+      <c r="B69" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="C69" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="F69" s="35" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
+      <c r="A70" s="21"/>
+      <c r="B70" s="27"/>
+      <c r="C70" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="F70" s="35"/>
+    </row>
+    <row r="73" spans="1:8" s="7" customFormat="1">
+      <c r="A73" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="B73" s="8"/>
+      <c r="C73" s="8"/>
+      <c r="D73" s="8"/>
+      <c r="E73" s="8"/>
+      <c r="F73" s="8"/>
+      <c r="G73" s="8"/>
+    </row>
+    <row r="74" spans="1:8">
+      <c r="A74" s="29" t="s">
+        <v>33</v>
+      </c>
+      <c r="B74" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="C74" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="D74" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="F74" s="35" t="s">
+        <v>157</v>
+      </c>
+      <c r="H74" s="37" t="s">
         <v>37</v>
       </c>
-      <c r="B3" s="22"/>
-      <c r="C3" s="22"/>
-      <c r="D3" s="22"/>
-      <c r="E3" s="22"/>
-      <c r="F3" s="22"/>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="B5" s="2"/>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="B6" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="D6" s="7"/>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="17"/>
-      <c r="B7" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="C7" t="s">
-        <v>27</v>
-      </c>
-      <c r="D7" s="7"/>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="17"/>
-      <c r="B8" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="D8" s="7"/>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="17"/>
-      <c r="B9" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="C9" t="s">
-        <v>26</v>
-      </c>
-      <c r="D9" s="7"/>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="17"/>
-      <c r="B10" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="D10" s="7"/>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11" s="17"/>
-      <c r="B11" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="C11" t="s">
-        <v>26</v>
-      </c>
-      <c r="D11" s="7"/>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12" s="9"/>
-      <c r="B12" s="9"/>
-      <c r="D12" s="7"/>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="A13" s="9" t="s">
-        <v>126</v>
-      </c>
-      <c r="B13" s="9"/>
-      <c r="D13" s="7"/>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="A14" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="B14" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="C14" t="s">
+    </row>
+    <row r="75" spans="1:8">
+      <c r="A75" s="29"/>
+      <c r="B75" s="28"/>
+      <c r="C75" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="D75" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="D14" s="7"/>
-    </row>
-    <row r="15" spans="1:6">
-      <c r="A15" s="15"/>
-      <c r="B15" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="C15" t="s">
-        <v>35</v>
-      </c>
-      <c r="D15" s="7"/>
-    </row>
-    <row r="16" spans="1:6">
-      <c r="A16" s="15"/>
-      <c r="B16" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="C16" t="s">
+      <c r="F75" s="35"/>
+      <c r="H75" s="37"/>
+    </row>
+    <row r="76" spans="1:8">
+      <c r="A76" s="29"/>
+      <c r="B76" s="27" t="s">
+        <v>15</v>
+      </c>
+      <c r="C76" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="F76" s="35" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
+      <c r="A77" s="29"/>
+      <c r="B77" s="27"/>
+      <c r="C77" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D77" s="12"/>
+      <c r="F77" s="35"/>
+    </row>
+    <row r="78" spans="1:8">
+      <c r="A78" s="29"/>
+      <c r="B78" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="D16" s="7" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="A17" s="15"/>
-      <c r="B17" s="16"/>
-      <c r="C17" t="s">
-        <v>15</v>
-      </c>
-      <c r="D17" s="7" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
-      <c r="A18" s="15"/>
-      <c r="B18" s="16"/>
-      <c r="C18" t="s">
+      <c r="C78" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="D18" s="7" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
-      <c r="A19" s="15"/>
-      <c r="B19" s="16"/>
-      <c r="C19" t="s">
-        <v>47</v>
-      </c>
-      <c r="D19" s="7" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
-      <c r="A20" s="15"/>
-      <c r="B20" s="16"/>
-      <c r="C20" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="D20" s="7"/>
-    </row>
-    <row r="21" spans="1:5">
-      <c r="A21" s="15"/>
-      <c r="B21" s="16"/>
-      <c r="C21" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="D21" s="7" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
-      <c r="A22" s="15"/>
-      <c r="B22" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="C22" t="s">
-        <v>14</v>
-      </c>
-      <c r="D22" s="7" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
-      <c r="A23" s="15"/>
-      <c r="B23" s="16"/>
-      <c r="C23" t="s">
-        <v>15</v>
-      </c>
-      <c r="D23" s="7" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
-      <c r="A24" s="15"/>
-      <c r="B24" s="16"/>
-      <c r="C24" t="s">
-        <v>16</v>
-      </c>
-      <c r="D24" s="8" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
-      <c r="A25" s="15"/>
-      <c r="B25" s="16"/>
-      <c r="C25" t="s">
-        <v>47</v>
-      </c>
-      <c r="D25" s="8" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
-      <c r="A26" s="15"/>
-      <c r="B26" s="16"/>
-      <c r="C26" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="D26" s="8"/>
-    </row>
-    <row r="27" spans="1:5">
-      <c r="A27" s="15"/>
-      <c r="B27" s="16"/>
-      <c r="C27" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="D27" s="8" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5">
-      <c r="A28" s="9"/>
-      <c r="B28" s="9"/>
-      <c r="D28" s="8"/>
-    </row>
-    <row r="29" spans="1:5">
-      <c r="A29" s="9" t="s">
-        <v>125</v>
-      </c>
-      <c r="B29" s="9"/>
-      <c r="D29" s="8"/>
-    </row>
-    <row r="30" spans="1:5">
-      <c r="A30" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="B30" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="C30" t="s">
-        <v>38</v>
-      </c>
-      <c r="D30" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="E30" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
-      <c r="A31" s="17"/>
-      <c r="B31" s="16"/>
-      <c r="C31" t="s">
-        <v>39</v>
-      </c>
-      <c r="D31" s="8"/>
-    </row>
-    <row r="32" spans="1:5">
-      <c r="A32" s="17"/>
-      <c r="B32" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="C32" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="D32" s="3"/>
-    </row>
-    <row r="33" spans="1:6">
-      <c r="A33" s="17"/>
-      <c r="B33" s="16"/>
-      <c r="C33" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="D33" s="3"/>
-    </row>
-    <row r="34" spans="1:6">
-      <c r="A34" s="17"/>
-      <c r="B34" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="C34" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="D34" s="3"/>
-    </row>
-    <row r="35" spans="1:6">
-      <c r="A35" s="11"/>
-      <c r="B35" s="16"/>
-      <c r="C35" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="D35" s="3"/>
-    </row>
-    <row r="36" spans="1:6">
-      <c r="A36" s="11"/>
-      <c r="B36" s="9"/>
-      <c r="C36" s="6"/>
-      <c r="D36" s="3"/>
-    </row>
-    <row r="37" spans="1:6">
-      <c r="A37" s="9"/>
-      <c r="B37" s="9"/>
-      <c r="D37" s="3"/>
-    </row>
-    <row r="38" spans="1:6">
-      <c r="A38" s="9" t="s">
-        <v>127</v>
-      </c>
-      <c r="B38" s="9"/>
-      <c r="D38" s="3"/>
-    </row>
-    <row r="39" spans="1:6">
-      <c r="A39" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="B39" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="C39" t="s">
+      <c r="F78" s="35" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
+      <c r="A79" s="29"/>
+      <c r="B79" s="27"/>
+      <c r="C79" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="D39" s="3"/>
-    </row>
-    <row r="40" spans="1:6">
-      <c r="A40" s="15"/>
-      <c r="B40" s="16"/>
-      <c r="C40" t="s">
-        <v>23</v>
-      </c>
-      <c r="D40" s="7" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6">
-      <c r="A41" s="15"/>
-      <c r="B41" s="16"/>
-      <c r="C41" t="s">
-        <v>31</v>
-      </c>
-      <c r="D41" s="3"/>
-    </row>
-    <row r="42" spans="1:6">
-      <c r="A42" s="15"/>
-      <c r="B42" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="C42" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="D42" s="3"/>
-    </row>
-    <row r="43" spans="1:6">
-      <c r="A43" s="15"/>
-      <c r="B43" s="16"/>
-      <c r="C43" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="D43" s="3"/>
-    </row>
-    <row r="44" spans="1:6">
-      <c r="A44" s="15"/>
-      <c r="B44" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="C44" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="D44" s="3"/>
-    </row>
-    <row r="45" spans="1:6">
-      <c r="A45" s="15"/>
-      <c r="B45" s="16"/>
-      <c r="C45" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="D45" s="3"/>
-    </row>
-    <row r="46" spans="1:6">
-      <c r="A46" s="9"/>
-      <c r="B46" s="9"/>
-      <c r="D46" s="3"/>
-    </row>
-    <row r="47" spans="1:6">
-      <c r="A47" s="9" t="s">
-        <v>128</v>
-      </c>
-      <c r="B47" s="9"/>
-      <c r="D47" s="3"/>
-    </row>
-    <row r="48" spans="1:6">
-      <c r="A48" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="B48" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="C48" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D48" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="E48" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="F48" s="6" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6">
-      <c r="A49" s="17"/>
-      <c r="B49" s="18"/>
-      <c r="C49" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D49" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="E49" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="F49" s="10" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6">
-      <c r="A50" s="17"/>
-      <c r="B50" s="18"/>
-      <c r="C50" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D50" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="E50" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="F50" s="10" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6">
-      <c r="A51" s="17"/>
-      <c r="B51" s="18"/>
-      <c r="C51" t="s">
-        <v>47</v>
-      </c>
-      <c r="D51" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="E51" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="F51" s="10" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6">
-      <c r="A52" s="17"/>
-      <c r="B52" s="18"/>
-      <c r="C52" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="D52" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="E52" s="8"/>
-      <c r="F52" s="10" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6">
-      <c r="A53" s="17"/>
-      <c r="B53" s="18"/>
-      <c r="C53" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="D53" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="E53" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="F53" s="10" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6">
-      <c r="A54" s="17"/>
-      <c r="B54" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="C54" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="D54" s="8"/>
-    </row>
-    <row r="55" spans="1:6">
-      <c r="A55" s="17"/>
-      <c r="B55" s="19"/>
-      <c r="C55" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="D55" s="8"/>
-    </row>
-    <row r="56" spans="1:6">
-      <c r="A56" s="17"/>
-      <c r="B56" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="C56" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="D56" s="8" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6">
-      <c r="A57" s="17"/>
-      <c r="B57" s="18"/>
-      <c r="C57" s="6" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6">
-      <c r="A58" s="9"/>
-      <c r="B58" s="9"/>
-    </row>
-    <row r="59" spans="1:6">
-      <c r="A59" s="9" t="s">
-        <v>129</v>
-      </c>
-      <c r="B59" s="9"/>
-    </row>
-    <row r="60" spans="1:6">
-      <c r="A60" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="B60" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="C60" s="4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6">
-      <c r="A61" s="15"/>
-      <c r="B61" s="18"/>
-      <c r="C61" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6">
-      <c r="A62" s="15"/>
-      <c r="B62" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="C62" s="7" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6">
-      <c r="A63" s="15"/>
-      <c r="B63" s="18"/>
-      <c r="C63" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="D63" s="8"/>
-    </row>
-    <row r="64" spans="1:6">
-      <c r="A64" s="15"/>
-      <c r="B64" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="C64" s="8" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6">
-      <c r="A65" s="12"/>
-      <c r="B65" s="18"/>
-      <c r="C65" s="6" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6">
-      <c r="A66" s="9"/>
-      <c r="B66" s="9"/>
-    </row>
-    <row r="67" spans="1:6">
-      <c r="A67" s="9" t="s">
-        <v>130</v>
-      </c>
-      <c r="B67" s="9"/>
-    </row>
-    <row r="68" spans="1:6">
-      <c r="A68" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="B68" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="C68" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="D68" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="E68" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="F68" s="2"/>
-    </row>
-    <row r="69" spans="1:6">
-      <c r="A69" s="15"/>
-      <c r="B69" s="19"/>
-      <c r="C69" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="D69" t="s">
-        <v>44</v>
-      </c>
-      <c r="E69" s="16"/>
-      <c r="F69" s="2"/>
-    </row>
-    <row r="70" spans="1:6">
-      <c r="A70" s="15"/>
-      <c r="B70" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="C70" s="7" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6">
-      <c r="A71" s="15"/>
-      <c r="B71" s="18"/>
-      <c r="C71" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="D71" s="8"/>
-    </row>
-    <row r="72" spans="1:6">
-      <c r="A72" s="15"/>
-      <c r="B72" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="C72" s="8" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6">
-      <c r="A73" s="15"/>
-      <c r="B73" s="18"/>
-      <c r="C73" s="6" t="s">
-        <v>29</v>
+      <c r="F79" s="35"/>
+    </row>
+    <row r="82" spans="1:6">
+      <c r="A82" s="18" t="s">
+        <v>161</v>
+      </c>
+      <c r="B82" s="18"/>
+      <c r="C82" s="18" t="s">
+        <v>163</v>
+      </c>
+      <c r="D82" s="18"/>
+      <c r="E82" s="18"/>
+      <c r="F82" s="18" t="s">
+        <v>162</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="28">
-    <mergeCell ref="A6:A11"/>
-    <mergeCell ref="A14:A27"/>
-    <mergeCell ref="B16:B21"/>
-    <mergeCell ref="B22:B27"/>
-    <mergeCell ref="B30:B31"/>
+  <mergeCells count="50">
+    <mergeCell ref="F69:F70"/>
+    <mergeCell ref="F76:F77"/>
+    <mergeCell ref="F78:F79"/>
+    <mergeCell ref="F74:F75"/>
+    <mergeCell ref="F65:F66"/>
+    <mergeCell ref="F52:F57"/>
+    <mergeCell ref="F58:F59"/>
+    <mergeCell ref="F60:F61"/>
+    <mergeCell ref="F67:F68"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="F47:F48"/>
+    <mergeCell ref="F45:F46"/>
+    <mergeCell ref="F42:F44"/>
+    <mergeCell ref="F37:F38"/>
+    <mergeCell ref="F35:F36"/>
+    <mergeCell ref="F33:F34"/>
+    <mergeCell ref="F24:F29"/>
+    <mergeCell ref="F18:F23"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="A65:A69"/>
+    <mergeCell ref="B52:B57"/>
+    <mergeCell ref="B65:B66"/>
+    <mergeCell ref="B42:B44"/>
+    <mergeCell ref="B67:B68"/>
+    <mergeCell ref="B60:B61"/>
+    <mergeCell ref="B58:B59"/>
+    <mergeCell ref="B69:B70"/>
+    <mergeCell ref="B47:B48"/>
+    <mergeCell ref="B45:B46"/>
+    <mergeCell ref="A42:A48"/>
+    <mergeCell ref="A52:A61"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="H33:H34"/>
+    <mergeCell ref="B78:B79"/>
+    <mergeCell ref="B74:B75"/>
+    <mergeCell ref="A74:A79"/>
     <mergeCell ref="A2:E2"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A3:F3"/>
-    <mergeCell ref="A60:A64"/>
-    <mergeCell ref="B48:B53"/>
-    <mergeCell ref="B60:B61"/>
-    <mergeCell ref="B39:B41"/>
-    <mergeCell ref="B62:B63"/>
-    <mergeCell ref="B56:B57"/>
-    <mergeCell ref="B54:B55"/>
-    <mergeCell ref="B64:B65"/>
-    <mergeCell ref="B44:B45"/>
-    <mergeCell ref="B42:B43"/>
-    <mergeCell ref="A30:A34"/>
-    <mergeCell ref="B32:B33"/>
-    <mergeCell ref="B34:B35"/>
-    <mergeCell ref="A39:A45"/>
-    <mergeCell ref="E68:E69"/>
-    <mergeCell ref="A48:A57"/>
-    <mergeCell ref="B70:B71"/>
-    <mergeCell ref="B72:B73"/>
-    <mergeCell ref="B68:B69"/>
-    <mergeCell ref="A68:A73"/>
+    <mergeCell ref="H4:H5"/>
+    <mergeCell ref="H74:H75"/>
+    <mergeCell ref="B76:B77"/>
+    <mergeCell ref="A7:A12"/>
+    <mergeCell ref="A16:A29"/>
+    <mergeCell ref="B18:B23"/>
+    <mergeCell ref="B24:B29"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="A33:A38"/>
+    <mergeCell ref="H35:H36"/>
+    <mergeCell ref="H42:H44"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1954,10 +2446,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B92"/>
+  <dimension ref="A1:B99"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+      <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1967,353 +2459,378 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="23" t="s">
-        <v>123</v>
-      </c>
-      <c r="B1" s="23"/>
+      <c r="A1" s="39" t="s">
+        <v>100</v>
+      </c>
+      <c r="B1" s="39"/>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="24" t="s">
-        <v>124</v>
-      </c>
-      <c r="B2" s="25"/>
+      <c r="A2" s="40" t="s">
+        <v>101</v>
+      </c>
+      <c r="B2" s="41"/>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="25"/>
-      <c r="B3" s="25"/>
+      <c r="A3" s="41"/>
+      <c r="B3" s="41"/>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>153</v>
+      </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="13" t="s">
-        <v>58</v>
+      <c r="A6" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>59</v>
+        <v>127</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>60</v>
-      </c>
-      <c r="B8" t="s">
-        <v>118</v>
+        <v>131</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>120</v>
-      </c>
-      <c r="B9" t="s">
-        <v>119</v>
+        <v>132</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" t="s">
-        <v>63</v>
+        <v>152</v>
       </c>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" t="s">
-        <v>60</v>
+      <c r="A14" s="1" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>61</v>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="18" spans="1:2">
-      <c r="A18" s="13" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19" t="s">
-        <v>65</v>
+      <c r="A18" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="21" spans="1:2">
-      <c r="A21" t="s">
-        <v>66</v>
-      </c>
-      <c r="B21" t="s">
-        <v>121</v>
+      <c r="A21" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>67</v>
+        <v>80</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>68</v>
+        <v>81</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
-      <c r="A27" t="s">
-        <v>70</v>
+        <v>83</v>
       </c>
     </row>
     <row r="29" spans="1:2">
-      <c r="A29" t="s">
-        <v>67</v>
+      <c r="A29" s="1" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1">
-      <c r="A33" s="13" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" t="s">
+        <v>112</v>
+      </c>
+      <c r="B31" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" t="s">
+        <v>97</v>
+      </c>
+      <c r="B32" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
       <c r="A34" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1">
-      <c r="A36" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
       <c r="A37" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1">
-      <c r="A39" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1">
-      <c r="A40" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="42" spans="1:1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
       <c r="A42" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="43" spans="1:1">
-      <c r="A43" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="46" spans="1:1">
-      <c r="A46" s="13" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="47" spans="1:1">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44" t="s">
+        <v>55</v>
+      </c>
+      <c r="B44" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
       <c r="A47" t="s">
-        <v>78</v>
+        <v>57</v>
       </c>
     </row>
     <row r="49" spans="1:1">
       <c r="A49" t="s">
-        <v>79</v>
+        <v>114</v>
       </c>
     </row>
     <row r="50" spans="1:1">
       <c r="A50" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="51" spans="1:1">
-      <c r="A51" t="s">
-        <v>81</v>
+        <v>58</v>
       </c>
     </row>
     <row r="52" spans="1:1">
       <c r="A52" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="54" spans="1:1">
-      <c r="A54" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="55" spans="1:1">
-      <c r="A55" t="s">
-        <v>84</v>
+        <v>56</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1">
+      <c r="A53" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1">
+      <c r="A56" s="1" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="57" spans="1:1">
       <c r="A57" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="58" spans="1:1">
-      <c r="A58" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="61" spans="1:1">
-      <c r="A61" s="13" t="s">
-        <v>87</v>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1">
+      <c r="A59" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1">
+      <c r="A60" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="62" spans="1:1">
       <c r="A62" t="s">
-        <v>88</v>
+        <v>63</v>
       </c>
     </row>
     <row r="63" spans="1:1">
       <c r="A63" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1">
       <c r="A65" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2">
-      <c r="A68" s="13" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2">
-      <c r="A69" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1">
+      <c r="A66" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1">
+      <c r="A69" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1">
       <c r="A70" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2">
-      <c r="A71" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1">
       <c r="A72" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1">
       <c r="A73" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2">
-      <c r="A75" s="13" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2">
-      <c r="A76" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2">
-      <c r="A78" s="13" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2">
-      <c r="A79" t="s">
-        <v>114</v>
-      </c>
-      <c r="B79" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1">
+      <c r="A74" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1">
+      <c r="A75" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1">
+      <c r="A77" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1">
+      <c r="A78" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1">
       <c r="A80" t="s">
-        <v>116</v>
-      </c>
-      <c r="B80" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2" s="14" customFormat="1">
-      <c r="A83" s="14" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2">
-      <c r="A84" t="s">
-        <v>107</v>
-      </c>
-      <c r="B84" t="s">
-        <v>108</v>
+        <v>73</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2">
+      <c r="A81" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="85" spans="1:2">
-      <c r="A85" t="s">
-        <v>100</v>
-      </c>
-      <c r="B85" t="s">
-        <v>109</v>
+      <c r="A85" s="1" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="86" spans="1:2">
       <c r="A86" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="B86" t="s">
-        <v>110</v>
+        <v>93</v>
       </c>
     </row>
     <row r="87" spans="1:2">
       <c r="A87" t="s">
-        <v>102</v>
+        <v>113</v>
       </c>
       <c r="B87" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2">
-      <c r="A89" t="s">
-        <v>112</v>
-      </c>
-      <c r="B89" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2">
-      <c r="A90" t="s">
-        <v>106</v>
-      </c>
-      <c r="B90" t="s">
-        <v>113</v>
+        <v>94</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" s="2" customFormat="1">
+      <c r="A90" s="2" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="91" spans="1:2">
       <c r="A91" t="s">
-        <v>103</v>
+        <v>117</v>
       </c>
       <c r="B91" t="s">
-        <v>111</v>
+        <v>88</v>
       </c>
     </row>
     <row r="92" spans="1:2">
       <c r="A92" t="s">
-        <v>104</v>
+        <v>119</v>
       </c>
       <c r="B92" t="s">
-        <v>111</v>
+        <v>89</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2">
+      <c r="A93" t="s">
+        <v>116</v>
+      </c>
+      <c r="B93" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2">
+      <c r="A94" t="s">
+        <v>118</v>
+      </c>
+      <c r="B94" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2">
+      <c r="A96" t="s">
+        <v>115</v>
+      </c>
+      <c r="B96" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2">
+      <c r="A97" t="s">
+        <v>108</v>
+      </c>
+      <c r="B97" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2">
+      <c r="A98" t="s">
+        <v>85</v>
+      </c>
+      <c r="B98" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2">
+      <c r="A99" t="s">
+        <v>86</v>
+      </c>
+      <c r="B99" t="s">
+        <v>91</v>
       </c>
     </row>
   </sheetData>
@@ -2323,5 +2840,6 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/UserManual/CMD_Manual.xlsx
+++ b/UserManual/CMD_Manual.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="185">
   <si>
     <t>type=info</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -929,6 +929,57 @@
   </si>
   <si>
     <t>定时启动3600秒后自动停止</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">curl -d "type=info&amp;key=syslog" http://10.10.88.173:1234 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"syslog": {"ip": "localhost", "port": 514}}</t>
+  </si>
+  <si>
+    <t>{}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>key=syslog</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>返回默认syslog日志信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>value=10.10.88.173#514</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>curl -d "type=info&amp;key=syslog" http://10.10.88.172:1234</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>syslog设置流程（1.发送分析命令；2.传输分析结果）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>curl -d "type=info&amp;key=syslog" http://10.10.88.173:1234</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看172 syslog当前设置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看173 syslog当前设置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>curl -d "type=req&amp;key=syslog&amp;value=10.10.88.171#514" http://10.10.88.172:1234</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"syslog": true} 或者 {"syslog": false}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1028,7 +1079,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1059,6 +1110,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -1072,7 +1129,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
@@ -1137,42 +1194,45 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1184,6 +1244,27 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1465,10 +1546,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H82"/>
+  <dimension ref="A1:H84"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C40" sqref="C40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1485,34 +1566,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="30" t="s">
         <v>99</v>
       </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
     </row>
     <row r="2" spans="1:8" ht="51" customHeight="1">
-      <c r="A2" s="30" t="s">
+      <c r="A2" s="37" t="s">
         <v>28</v>
       </c>
-      <c r="B2" s="31"/>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
-      <c r="E2" s="31"/>
+      <c r="B2" s="38"/>
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
       <c r="F2" s="25"/>
       <c r="G2" s="25"/>
       <c r="H2" s="9"/>
     </row>
     <row r="3" spans="1:8" ht="45" customHeight="1">
-      <c r="A3" s="33" t="s">
+      <c r="A3" s="31" t="s">
         <v>29</v>
       </c>
-      <c r="B3" s="33"/>
-      <c r="C3" s="33"/>
-      <c r="D3" s="33"/>
-      <c r="E3" s="33"/>
+      <c r="B3" s="31"/>
+      <c r="C3" s="31"/>
+      <c r="D3" s="31"/>
+      <c r="E3" s="31"/>
       <c r="F3" s="25"/>
       <c r="G3" s="25"/>
       <c r="H3" s="9"/>
@@ -1523,11 +1604,11 @@
       <c r="C4" s="10"/>
       <c r="D4" s="10"/>
       <c r="E4" s="10"/>
-      <c r="F4" s="36" t="s">
+      <c r="F4" s="28" t="s">
         <v>124</v>
       </c>
-      <c r="G4" s="36"/>
-      <c r="H4" s="36" t="s">
+      <c r="G4" s="28"/>
+      <c r="H4" s="28" t="s">
         <v>125</v>
       </c>
     </row>
@@ -1543,7 +1624,7 @@
       <c r="G5" s="20" t="s">
         <v>137</v>
       </c>
-      <c r="H5" s="36"/>
+      <c r="H5" s="28"/>
     </row>
     <row r="6" spans="1:8" s="7" customFormat="1">
       <c r="A6" s="13" t="s">
@@ -1557,7 +1638,7 @@
       <c r="G6" s="8"/>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="29" t="s">
+      <c r="A7" s="43" t="s">
         <v>0</v>
       </c>
       <c r="B7" s="19" t="s">
@@ -1575,7 +1656,7 @@
       </c>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="29"/>
+      <c r="A8" s="43"/>
       <c r="B8" s="19" t="s">
         <v>121</v>
       </c>
@@ -1594,7 +1675,7 @@
       </c>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="29"/>
+      <c r="A9" s="43"/>
       <c r="B9" s="19" t="s">
         <v>128</v>
       </c>
@@ -1610,7 +1691,7 @@
       </c>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" s="29"/>
+      <c r="A10" s="43"/>
       <c r="B10" s="19" t="s">
         <v>133</v>
       </c>
@@ -1626,7 +1707,7 @@
       </c>
     </row>
     <row r="11" spans="1:8">
-      <c r="A11" s="29"/>
+      <c r="A11" s="43"/>
       <c r="B11" s="19" t="s">
         <v>120</v>
       </c>
@@ -1642,7 +1723,7 @@
       </c>
     </row>
     <row r="12" spans="1:8">
-      <c r="A12" s="29"/>
+      <c r="A12" s="43"/>
       <c r="B12" s="19" t="s">
         <v>2</v>
       </c>
@@ -1658,785 +1739,829 @@
       </c>
     </row>
     <row r="13" spans="1:8">
-      <c r="D13" s="11"/>
+      <c r="A13" s="43"/>
+      <c r="B13" s="44" t="s">
+        <v>175</v>
+      </c>
+      <c r="C13" s="44" t="s">
+        <v>176</v>
+      </c>
+      <c r="D13" s="45"/>
+      <c r="E13" s="44"/>
+      <c r="F13" s="44" t="s">
+        <v>173</v>
+      </c>
+      <c r="G13" s="44" t="s">
+        <v>174</v>
+      </c>
     </row>
     <row r="14" spans="1:8">
       <c r="D14" s="11"/>
     </row>
-    <row r="15" spans="1:8" s="7" customFormat="1">
-      <c r="A15" s="13" t="s">
+    <row r="15" spans="1:8">
+      <c r="A15" s="26"/>
+      <c r="B15" s="26"/>
+      <c r="C15" s="26"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="26"/>
+      <c r="F15" s="26"/>
+      <c r="G15" s="26"/>
+    </row>
+    <row r="16" spans="1:8" s="7" customFormat="1">
+      <c r="A16" s="13" t="s">
         <v>103</v>
       </c>
-      <c r="B15" s="8"/>
-      <c r="C15" s="8"/>
-      <c r="D15" s="14"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="8"/>
-      <c r="G15" s="8"/>
-    </row>
-    <row r="16" spans="1:8">
-      <c r="A16" s="34" t="s">
+      <c r="B16" s="8"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="14"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="48" t="s">
         <v>3</v>
       </c>
-      <c r="B16" s="19" t="s">
+      <c r="B17" s="19" t="s">
         <v>133</v>
-      </c>
-      <c r="C16" s="19" t="s">
-        <v>147</v>
-      </c>
-      <c r="D16" s="11"/>
-      <c r="F16" s="19" t="s">
-        <v>134</v>
-      </c>
-      <c r="G16" s="19" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
-      <c r="A17" s="34"/>
-      <c r="B17" s="19" t="s">
-        <v>142</v>
       </c>
       <c r="C17" s="19" t="s">
         <v>147</v>
       </c>
       <c r="D17" s="11"/>
-      <c r="F17" s="22" t="s">
+      <c r="F17" s="19" t="s">
+        <v>134</v>
+      </c>
+      <c r="G17" s="19" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="48"/>
+      <c r="B18" s="19" t="s">
+        <v>142</v>
+      </c>
+      <c r="C18" s="19" t="s">
+        <v>147</v>
+      </c>
+      <c r="D18" s="11"/>
+      <c r="F18" s="22" t="s">
         <v>148</v>
       </c>
-      <c r="G17" s="19" t="s">
+      <c r="G18" s="19" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="18" spans="1:7">
-      <c r="A18" s="34"/>
-      <c r="B18" s="35" t="s">
+    <row r="19" spans="1:7">
+      <c r="A19" s="48"/>
+      <c r="B19" s="27" t="s">
         <v>143</v>
       </c>
-      <c r="C18" s="19" t="s">
+      <c r="C19" s="19" t="s">
         <v>145</v>
-      </c>
-      <c r="D18" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="F18" s="37" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7">
-      <c r="A19" s="34"/>
-      <c r="B19" s="35"/>
-      <c r="C19" s="19" t="s">
-        <v>10</v>
       </c>
       <c r="D19" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="F19" s="37"/>
+      <c r="F19" s="29" t="s">
+        <v>149</v>
+      </c>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="34"/>
-      <c r="B20" s="35"/>
+      <c r="A20" s="48"/>
+      <c r="B20" s="27"/>
       <c r="C20" s="19" t="s">
-        <v>141</v>
+        <v>10</v>
       </c>
       <c r="D20" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="F20" s="37"/>
+      <c r="F20" s="29"/>
     </row>
     <row r="21" spans="1:7">
-      <c r="A21" s="34"/>
-      <c r="B21" s="35"/>
+      <c r="A21" s="48"/>
+      <c r="B21" s="27"/>
       <c r="C21" s="19" t="s">
+        <v>141</v>
+      </c>
+      <c r="D21" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F21" s="29"/>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="48"/>
+      <c r="B22" s="27"/>
+      <c r="C22" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="D21" s="11" t="s">
+      <c r="D22" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="F21" s="37"/>
-    </row>
-    <row r="22" spans="1:7">
-      <c r="A22" s="34"/>
-      <c r="B22" s="35"/>
-      <c r="C22" s="23" t="s">
+      <c r="F22" s="29"/>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="48"/>
+      <c r="B23" s="27"/>
+      <c r="C23" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="D22" s="11"/>
-      <c r="F22" s="37"/>
-    </row>
-    <row r="23" spans="1:7">
-      <c r="A23" s="34"/>
-      <c r="B23" s="35"/>
-      <c r="C23" s="23" t="s">
+      <c r="D23" s="11"/>
+      <c r="F23" s="29"/>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="48"/>
+      <c r="B24" s="27"/>
+      <c r="C24" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="D23" s="11" t="s">
+      <c r="D24" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="F23" s="37"/>
-    </row>
-    <row r="24" spans="1:7">
-      <c r="A24" s="34"/>
-      <c r="B24" s="35" t="s">
+      <c r="F24" s="29"/>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="48"/>
+      <c r="B25" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="C24" s="19" t="s">
+      <c r="C25" s="19" t="s">
         <v>145</v>
       </c>
-      <c r="D24" s="11" t="s">
+      <c r="D25" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="F24" s="35" t="s">
+      <c r="F25" s="27" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="25" spans="1:7">
-      <c r="A25" s="34"/>
-      <c r="B25" s="35"/>
-      <c r="C25" s="19" t="s">
+    <row r="26" spans="1:7">
+      <c r="A26" s="48"/>
+      <c r="B26" s="27"/>
+      <c r="C26" s="19" t="s">
         <v>146</v>
       </c>
-      <c r="D25" s="11" t="s">
+      <c r="D26" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="F25" s="35"/>
-    </row>
-    <row r="26" spans="1:7">
-      <c r="A26" s="34"/>
-      <c r="B26" s="35"/>
-      <c r="C26" s="19" t="s">
+      <c r="F26" s="27"/>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" s="48"/>
+      <c r="B27" s="27"/>
+      <c r="C27" s="19" t="s">
         <v>11</v>
-      </c>
-      <c r="D26" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="F26" s="35"/>
-    </row>
-    <row r="27" spans="1:7">
-      <c r="A27" s="34"/>
-      <c r="B27" s="35"/>
-      <c r="C27" s="19" t="s">
-        <v>38</v>
       </c>
       <c r="D27" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="F27" s="35"/>
+      <c r="F27" s="27"/>
     </row>
     <row r="28" spans="1:7">
-      <c r="A28" s="34"/>
-      <c r="B28" s="35"/>
-      <c r="C28" s="23" t="s">
+      <c r="A28" s="48"/>
+      <c r="B28" s="27"/>
+      <c r="C28" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="D28" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F28" s="27"/>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" s="48"/>
+      <c r="B29" s="27"/>
+      <c r="C29" s="23" t="s">
         <v>144</v>
       </c>
-      <c r="D28" s="12"/>
-      <c r="F28" s="35"/>
-    </row>
-    <row r="29" spans="1:7">
-      <c r="A29" s="34"/>
-      <c r="B29" s="35"/>
-      <c r="C29" s="23" t="s">
+      <c r="D29" s="12"/>
+      <c r="F29" s="27"/>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" s="48"/>
+      <c r="B30" s="27"/>
+      <c r="C30" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="D29" s="12" t="s">
+      <c r="D30" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="F29" s="35"/>
-    </row>
-    <row r="30" spans="1:7">
-      <c r="D30" s="12"/>
+      <c r="F30" s="27"/>
     </row>
     <row r="31" spans="1:7">
-      <c r="D31" s="12"/>
-    </row>
-    <row r="32" spans="1:7" s="7" customFormat="1">
-      <c r="A32" s="13" t="s">
+      <c r="A31" s="48"/>
+      <c r="B31" s="46" t="s">
+        <v>175</v>
+      </c>
+      <c r="C31" s="47" t="s">
+        <v>177</v>
+      </c>
+      <c r="D31" s="47"/>
+      <c r="E31" s="47"/>
+      <c r="F31" s="49" t="s">
+        <v>184</v>
+      </c>
+      <c r="G31" s="47"/>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" s="26"/>
+      <c r="B32" s="26"/>
+      <c r="C32" s="26"/>
+      <c r="D32" s="12"/>
+      <c r="E32" s="26"/>
+      <c r="F32" s="26"/>
+      <c r="G32" s="26"/>
+    </row>
+    <row r="33" spans="1:8">
+      <c r="D33" s="12"/>
+    </row>
+    <row r="34" spans="1:8" s="7" customFormat="1">
+      <c r="A34" s="13" t="s">
         <v>102</v>
       </c>
-      <c r="B32" s="8"/>
-      <c r="C32" s="8"/>
-      <c r="D32" s="15"/>
-      <c r="E32" s="8"/>
-      <c r="F32" s="8"/>
-      <c r="G32" s="8"/>
-    </row>
-    <row r="33" spans="1:8">
-      <c r="A33" s="38" t="s">
+      <c r="B34" s="8"/>
+      <c r="C34" s="8"/>
+      <c r="D34" s="15"/>
+      <c r="E34" s="8"/>
+      <c r="F34" s="8"/>
+      <c r="G34" s="8"/>
+    </row>
+    <row r="35" spans="1:8">
+      <c r="A35" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="B33" s="35" t="s">
+      <c r="B35" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="C33" s="19" t="s">
+      <c r="C35" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="D33" s="12" t="s">
+      <c r="D35" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="E33" s="19" t="s">
+      <c r="E35" s="19" t="s">
         <v>171</v>
       </c>
-      <c r="F33" s="35" t="s">
+      <c r="F35" s="27" t="s">
         <v>157</v>
       </c>
-      <c r="H33" s="26" t="s">
+      <c r="H35" s="36" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="34" spans="1:8">
-      <c r="A34" s="38"/>
-      <c r="B34" s="35"/>
-      <c r="C34" s="19" t="s">
+    <row r="36" spans="1:8">
+      <c r="A36" s="39"/>
+      <c r="B36" s="27"/>
+      <c r="C36" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="D34" s="12"/>
-      <c r="F34" s="35"/>
-      <c r="H34" s="26"/>
-    </row>
-    <row r="35" spans="1:8">
-      <c r="A35" s="38"/>
-      <c r="B35" s="35" t="s">
+      <c r="D36" s="12"/>
+      <c r="F36" s="27"/>
+      <c r="H36" s="36"/>
+    </row>
+    <row r="37" spans="1:8">
+      <c r="A37" s="39"/>
+      <c r="B37" s="27" t="s">
         <v>15</v>
-      </c>
-      <c r="C35" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="D35" s="16"/>
-      <c r="F35" s="35" t="s">
-        <v>158</v>
-      </c>
-      <c r="H35" s="37" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8">
-      <c r="A36" s="38"/>
-      <c r="B36" s="35"/>
-      <c r="C36" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D36" s="16"/>
-      <c r="F36" s="35"/>
-      <c r="H36" s="37"/>
-    </row>
-    <row r="37" spans="1:8">
-      <c r="A37" s="38"/>
-      <c r="B37" s="35" t="s">
-        <v>14</v>
       </c>
       <c r="C37" s="11" t="s">
         <v>16</v>
       </c>
       <c r="D37" s="16"/>
-      <c r="F37" s="35" t="s">
+      <c r="F37" s="27" t="s">
+        <v>158</v>
+      </c>
+      <c r="H37" s="29" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
+      <c r="A38" s="39"/>
+      <c r="B38" s="27"/>
+      <c r="C38" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D38" s="16"/>
+      <c r="F38" s="27"/>
+      <c r="H38" s="29"/>
+    </row>
+    <row r="39" spans="1:8">
+      <c r="A39" s="39"/>
+      <c r="B39" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="C39" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D39" s="16"/>
+      <c r="F39" s="27" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="38" spans="1:8">
-      <c r="A38" s="38"/>
-      <c r="B38" s="35"/>
-      <c r="C38" s="5" t="s">
+    <row r="40" spans="1:8">
+      <c r="A40" s="39"/>
+      <c r="B40" s="27"/>
+      <c r="C40" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="D38" s="16"/>
-      <c r="F38" s="35"/>
-    </row>
-    <row r="39" spans="1:8">
-      <c r="A39" s="8"/>
-      <c r="C39" s="5"/>
-      <c r="D39" s="16"/>
-    </row>
-    <row r="40" spans="1:8">
       <c r="D40" s="16"/>
-    </row>
-    <row r="41" spans="1:8" s="7" customFormat="1">
-      <c r="A41" s="13" t="s">
+      <c r="F40" s="27"/>
+    </row>
+    <row r="41" spans="1:8">
+      <c r="A41" s="8"/>
+      <c r="C41" s="5"/>
+      <c r="D41" s="16"/>
+    </row>
+    <row r="42" spans="1:8">
+      <c r="D42" s="16"/>
+    </row>
+    <row r="43" spans="1:8" s="7" customFormat="1">
+      <c r="A43" s="13" t="s">
         <v>104</v>
       </c>
-      <c r="B41" s="8"/>
-      <c r="C41" s="8"/>
-      <c r="D41" s="17"/>
-      <c r="E41" s="8"/>
-      <c r="F41" s="8"/>
-      <c r="G41" s="8"/>
-    </row>
-    <row r="42" spans="1:8">
-      <c r="A42" s="34" t="s">
+      <c r="B43" s="8"/>
+      <c r="C43" s="8"/>
+      <c r="D43" s="17"/>
+      <c r="E43" s="8"/>
+      <c r="F43" s="8"/>
+      <c r="G43" s="8"/>
+    </row>
+    <row r="44" spans="1:8">
+      <c r="A44" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="B42" s="35" t="s">
+      <c r="B44" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="C42" s="19" t="s">
+      <c r="C44" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="D42" s="16"/>
-      <c r="F42" s="35" t="s">
+      <c r="D44" s="16"/>
+      <c r="F44" s="27" t="s">
         <v>157</v>
       </c>
-      <c r="H42" s="37" t="s">
+      <c r="H44" s="29" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="43" spans="1:8">
-      <c r="A43" s="34"/>
-      <c r="B43" s="35"/>
-      <c r="C43" s="19" t="s">
+    <row r="45" spans="1:8">
+      <c r="A45" s="32"/>
+      <c r="B45" s="27"/>
+      <c r="C45" s="19" t="s">
         <v>140</v>
       </c>
-      <c r="D43" s="11" t="s">
+      <c r="D45" s="11" t="s">
         <v>139</v>
       </c>
-      <c r="F43" s="35"/>
-      <c r="H43" s="37"/>
-    </row>
-    <row r="44" spans="1:8">
-      <c r="A44" s="34"/>
-      <c r="B44" s="35"/>
-      <c r="C44" s="19" t="s">
+      <c r="F45" s="27"/>
+      <c r="H45" s="29"/>
+    </row>
+    <row r="46" spans="1:8">
+      <c r="A46" s="32"/>
+      <c r="B46" s="27"/>
+      <c r="C46" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="D44" s="16"/>
-      <c r="F44" s="35"/>
-      <c r="H44" s="37"/>
-    </row>
-    <row r="45" spans="1:8">
-      <c r="A45" s="34"/>
-      <c r="B45" s="35" t="s">
+      <c r="D46" s="16"/>
+      <c r="F46" s="27"/>
+      <c r="H46" s="29"/>
+    </row>
+    <row r="47" spans="1:8">
+      <c r="A47" s="32"/>
+      <c r="B47" s="27" t="s">
         <v>15</v>
-      </c>
-      <c r="C45" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="D45" s="16"/>
-      <c r="F45" s="35" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8">
-      <c r="A46" s="34"/>
-      <c r="B46" s="35"/>
-      <c r="C46" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D46" s="16"/>
-      <c r="F46" s="35"/>
-    </row>
-    <row r="47" spans="1:8">
-      <c r="A47" s="34"/>
-      <c r="B47" s="35" t="s">
-        <v>14</v>
       </c>
       <c r="C47" s="11" t="s">
         <v>16</v>
       </c>
       <c r="D47" s="16"/>
-      <c r="F47" s="35" t="s">
+      <c r="F47" s="27" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
+      <c r="A48" s="32"/>
+      <c r="B48" s="27"/>
+      <c r="C48" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D48" s="16"/>
+      <c r="F48" s="27"/>
+    </row>
+    <row r="49" spans="1:8">
+      <c r="A49" s="32"/>
+      <c r="B49" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="C49" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D49" s="16"/>
+      <c r="F49" s="27" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="48" spans="1:8">
-      <c r="A48" s="34"/>
-      <c r="B48" s="35"/>
-      <c r="C48" s="5" t="s">
+    <row r="50" spans="1:8">
+      <c r="A50" s="32"/>
+      <c r="B50" s="27"/>
+      <c r="C50" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="D48" s="16"/>
-      <c r="F48" s="35"/>
-    </row>
-    <row r="49" spans="1:8">
-      <c r="D49" s="16"/>
-    </row>
-    <row r="50" spans="1:8">
       <c r="D50" s="16"/>
-    </row>
-    <row r="51" spans="1:8" s="7" customFormat="1">
-      <c r="A51" s="13" t="s">
+      <c r="F50" s="27"/>
+    </row>
+    <row r="51" spans="1:8">
+      <c r="D51" s="16"/>
+    </row>
+    <row r="52" spans="1:8">
+      <c r="D52" s="16"/>
+    </row>
+    <row r="53" spans="1:8" s="7" customFormat="1">
+      <c r="A53" s="13" t="s">
         <v>105</v>
       </c>
-      <c r="B51" s="8"/>
-      <c r="C51" s="8"/>
-      <c r="D51" s="17"/>
-      <c r="E51" s="8"/>
-      <c r="F51" s="8"/>
-      <c r="G51" s="8"/>
-    </row>
-    <row r="52" spans="1:8">
-      <c r="A52" s="29" t="s">
+      <c r="B53" s="8"/>
+      <c r="C53" s="8"/>
+      <c r="D53" s="17"/>
+      <c r="E53" s="8"/>
+      <c r="F53" s="8"/>
+      <c r="G53" s="8"/>
+    </row>
+    <row r="54" spans="1:8">
+      <c r="A54" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="B52" s="28" t="s">
+      <c r="B54" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="C52" s="23" t="s">
+      <c r="C54" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="D52" s="24" t="s">
+      <c r="D54" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="E52" s="11" t="s">
+      <c r="E54" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="F52" s="35" t="s">
+      <c r="F54" s="27" t="s">
         <v>157</v>
       </c>
-      <c r="H52" s="5" t="s">
+      <c r="H54" s="5" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="53" spans="1:8">
-      <c r="A53" s="29"/>
-      <c r="B53" s="27"/>
-      <c r="C53" s="23" t="s">
+    <row r="55" spans="1:8">
+      <c r="A55" s="35"/>
+      <c r="B55" s="34"/>
+      <c r="C55" s="23" t="s">
         <v>146</v>
       </c>
-      <c r="D53" s="23" t="s">
+      <c r="D55" s="23" t="s">
         <v>18</v>
-      </c>
-      <c r="E53" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="F53" s="35"/>
-      <c r="H53" s="6" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8">
-      <c r="A54" s="29"/>
-      <c r="B54" s="27"/>
-      <c r="C54" s="23" t="s">
-        <v>141</v>
-      </c>
-      <c r="D54" s="23" t="s">
-        <v>18</v>
-      </c>
-      <c r="E54" s="12" t="s">
-        <v>155</v>
-      </c>
-      <c r="F54" s="35"/>
-      <c r="H54" s="6" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8">
-      <c r="A55" s="29"/>
-      <c r="B55" s="27"/>
-      <c r="C55" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="D55" s="23" t="s">
-        <v>156</v>
       </c>
       <c r="E55" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="F55" s="35"/>
+      <c r="F55" s="27"/>
       <c r="H55" s="6" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="56" spans="1:8">
-      <c r="A56" s="29"/>
-      <c r="B56" s="27"/>
+      <c r="A56" s="35"/>
+      <c r="B56" s="34"/>
       <c r="C56" s="23" t="s">
-        <v>26</v>
+        <v>141</v>
       </c>
       <c r="D56" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="E56" s="12"/>
-      <c r="F56" s="35"/>
+      <c r="E56" s="12" t="s">
+        <v>155</v>
+      </c>
+      <c r="F56" s="27"/>
       <c r="H56" s="6" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="57" spans="1:8">
-      <c r="A57" s="29"/>
-      <c r="B57" s="27"/>
-      <c r="C57" s="23" t="s">
-        <v>27</v>
+      <c r="A57" s="35"/>
+      <c r="B57" s="34"/>
+      <c r="C57" s="19" t="s">
+        <v>38</v>
       </c>
       <c r="D57" s="23" t="s">
-        <v>18</v>
+        <v>156</v>
       </c>
       <c r="E57" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="F57" s="35"/>
+      <c r="F57" s="27"/>
       <c r="H57" s="6" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
+      <c r="A58" s="35"/>
+      <c r="B58" s="34"/>
+      <c r="C58" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D58" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="E58" s="12"/>
+      <c r="F58" s="27"/>
+      <c r="H58" s="6" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
+      <c r="A59" s="35"/>
+      <c r="B59" s="34"/>
+      <c r="C59" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="D59" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="E59" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F59" s="27"/>
+      <c r="H59" s="6" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="58" spans="1:8">
-      <c r="A58" s="29"/>
-      <c r="B58" s="28" t="s">
+    <row r="60" spans="1:8">
+      <c r="A60" s="35"/>
+      <c r="B60" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="C58" s="11" t="s">
+      <c r="C60" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="D58" s="12"/>
-      <c r="F58" s="35" t="s">
+      <c r="D60" s="12"/>
+      <c r="F60" s="27" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="59" spans="1:8">
-      <c r="A59" s="29"/>
-      <c r="B59" s="28"/>
-      <c r="C59" s="5" t="s">
+    <row r="61" spans="1:8">
+      <c r="A61" s="35"/>
+      <c r="B61" s="33"/>
+      <c r="C61" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="D59" s="12"/>
-      <c r="F59" s="35"/>
-    </row>
-    <row r="60" spans="1:8">
-      <c r="A60" s="29"/>
-      <c r="B60" s="27" t="s">
+      <c r="D61" s="12"/>
+      <c r="F61" s="27"/>
+    </row>
+    <row r="62" spans="1:8">
+      <c r="A62" s="35"/>
+      <c r="B62" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="C60" s="12" t="s">
+      <c r="C62" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="D60" s="12" t="s">
+      <c r="D62" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="F60" s="35" t="s">
+      <c r="F62" s="27" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="61" spans="1:8">
-      <c r="A61" s="29"/>
-      <c r="B61" s="27"/>
-      <c r="C61" s="5" t="s">
+    <row r="63" spans="1:8">
+      <c r="A63" s="35"/>
+      <c r="B63" s="34"/>
+      <c r="C63" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="F61" s="35"/>
-    </row>
-    <row r="64" spans="1:8" s="7" customFormat="1">
-      <c r="A64" s="13" t="s">
+      <c r="F63" s="27"/>
+    </row>
+    <row r="66" spans="1:8" s="7" customFormat="1">
+      <c r="A66" s="13" t="s">
         <v>106</v>
       </c>
-      <c r="B64" s="8"/>
-      <c r="C64" s="8"/>
-      <c r="D64" s="8"/>
-      <c r="E64" s="8"/>
-      <c r="F64" s="8"/>
-      <c r="G64" s="8"/>
-    </row>
-    <row r="65" spans="1:8">
-      <c r="A65" s="34" t="s">
+      <c r="B66" s="8"/>
+      <c r="C66" s="8"/>
+      <c r="D66" s="8"/>
+      <c r="E66" s="8"/>
+      <c r="F66" s="8"/>
+      <c r="G66" s="8"/>
+    </row>
+    <row r="67" spans="1:8">
+      <c r="A67" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="B65" s="28" t="s">
+      <c r="B67" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="C65" s="24" t="s">
+      <c r="C67" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="F65" s="35" t="s">
+      <c r="F67" s="27" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="66" spans="1:8">
-      <c r="A66" s="34"/>
-      <c r="B66" s="27"/>
-      <c r="C66" s="19" t="s">
+    <row r="68" spans="1:8">
+      <c r="A68" s="32"/>
+      <c r="B68" s="34"/>
+      <c r="C68" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="F66" s="35"/>
-    </row>
-    <row r="67" spans="1:8">
-      <c r="A67" s="34"/>
-      <c r="B67" s="27" t="s">
+      <c r="F68" s="27"/>
+    </row>
+    <row r="69" spans="1:8">
+      <c r="A69" s="32"/>
+      <c r="B69" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="C67" s="11" t="s">
+      <c r="C69" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="F67" s="35" t="s">
+      <c r="F69" s="27" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="68" spans="1:8">
-      <c r="A68" s="34"/>
-      <c r="B68" s="27"/>
-      <c r="C68" s="5" t="s">
+    <row r="70" spans="1:8">
+      <c r="A70" s="32"/>
+      <c r="B70" s="34"/>
+      <c r="C70" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="D68" s="12"/>
-      <c r="F68" s="35"/>
-    </row>
-    <row r="69" spans="1:8">
-      <c r="A69" s="34"/>
-      <c r="B69" s="27" t="s">
+      <c r="D70" s="12"/>
+      <c r="F70" s="27"/>
+    </row>
+    <row r="71" spans="1:8">
+      <c r="A71" s="32"/>
+      <c r="B71" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="C69" s="12" t="s">
+      <c r="C71" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="F69" s="35" t="s">
+      <c r="F71" s="27" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="70" spans="1:8">
-      <c r="A70" s="21"/>
-      <c r="B70" s="27"/>
-      <c r="C70" s="5" t="s">
+    <row r="72" spans="1:8">
+      <c r="A72" s="21"/>
+      <c r="B72" s="34"/>
+      <c r="C72" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="F70" s="35"/>
-    </row>
-    <row r="73" spans="1:8" s="7" customFormat="1">
-      <c r="A73" s="13" t="s">
+      <c r="F72" s="27"/>
+    </row>
+    <row r="75" spans="1:8" s="7" customFormat="1">
+      <c r="A75" s="13" t="s">
         <v>107</v>
       </c>
-      <c r="B73" s="8"/>
-      <c r="C73" s="8"/>
-      <c r="D73" s="8"/>
-      <c r="E73" s="8"/>
-      <c r="F73" s="8"/>
-      <c r="G73" s="8"/>
-    </row>
-    <row r="74" spans="1:8">
-      <c r="A74" s="29" t="s">
+      <c r="B75" s="8"/>
+      <c r="C75" s="8"/>
+      <c r="D75" s="8"/>
+      <c r="E75" s="8"/>
+      <c r="F75" s="8"/>
+      <c r="G75" s="8"/>
+    </row>
+    <row r="76" spans="1:8">
+      <c r="A76" s="35" t="s">
         <v>33</v>
       </c>
-      <c r="B74" s="28" t="s">
+      <c r="B76" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="C74" s="23" t="s">
+      <c r="C76" s="23" t="s">
         <v>40</v>
       </c>
-      <c r="D74" s="24" t="s">
+      <c r="D76" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="F74" s="35" t="s">
+      <c r="F76" s="27" t="s">
         <v>157</v>
       </c>
-      <c r="H74" s="37" t="s">
+      <c r="H76" s="29" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="75" spans="1:8">
-      <c r="A75" s="29"/>
-      <c r="B75" s="28"/>
-      <c r="C75" s="23" t="s">
+    <row r="77" spans="1:8">
+      <c r="A77" s="35"/>
+      <c r="B77" s="33"/>
+      <c r="C77" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="D75" s="19" t="s">
+      <c r="D77" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="F75" s="35"/>
-      <c r="H75" s="37"/>
-    </row>
-    <row r="76" spans="1:8">
-      <c r="A76" s="29"/>
-      <c r="B76" s="27" t="s">
+      <c r="F77" s="27"/>
+      <c r="H77" s="29"/>
+    </row>
+    <row r="78" spans="1:8">
+      <c r="A78" s="35"/>
+      <c r="B78" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="C76" s="11" t="s">
+      <c r="C78" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="F76" s="35" t="s">
+      <c r="F78" s="27" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="77" spans="1:8">
-      <c r="A77" s="29"/>
-      <c r="B77" s="27"/>
-      <c r="C77" s="5" t="s">
+    <row r="79" spans="1:8">
+      <c r="A79" s="35"/>
+      <c r="B79" s="34"/>
+      <c r="C79" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="D77" s="12"/>
-      <c r="F77" s="35"/>
-    </row>
-    <row r="78" spans="1:8">
-      <c r="A78" s="29"/>
-      <c r="B78" s="27" t="s">
+      <c r="D79" s="12"/>
+      <c r="F79" s="27"/>
+    </row>
+    <row r="80" spans="1:8">
+      <c r="A80" s="35"/>
+      <c r="B80" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="C78" s="12" t="s">
+      <c r="C80" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="F78" s="35" t="s">
+      <c r="F80" s="27" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="79" spans="1:8">
-      <c r="A79" s="29"/>
-      <c r="B79" s="27"/>
-      <c r="C79" s="5" t="s">
+    <row r="81" spans="1:6">
+      <c r="A81" s="35"/>
+      <c r="B81" s="34"/>
+      <c r="C81" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="F79" s="35"/>
-    </row>
-    <row r="82" spans="1:6">
-      <c r="A82" s="18" t="s">
+      <c r="F81" s="27"/>
+    </row>
+    <row r="84" spans="1:6">
+      <c r="A84" s="18" t="s">
         <v>161</v>
       </c>
-      <c r="B82" s="18"/>
-      <c r="C82" s="18" t="s">
+      <c r="B84" s="18"/>
+      <c r="C84" s="18" t="s">
         <v>163</v>
       </c>
-      <c r="D82" s="18"/>
-      <c r="E82" s="18"/>
-      <c r="F82" s="18" t="s">
+      <c r="D84" s="18"/>
+      <c r="E84" s="18"/>
+      <c r="F84" s="18" t="s">
         <v>162</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="50">
+    <mergeCell ref="A7:A13"/>
+    <mergeCell ref="A17:A31"/>
+    <mergeCell ref="H35:H36"/>
+    <mergeCell ref="B80:B81"/>
+    <mergeCell ref="B76:B77"/>
+    <mergeCell ref="A76:A81"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="H4:H5"/>
+    <mergeCell ref="H76:H77"/>
+    <mergeCell ref="B78:B79"/>
+    <mergeCell ref="B19:B24"/>
+    <mergeCell ref="B25:B30"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="A35:A40"/>
+    <mergeCell ref="H37:H38"/>
+    <mergeCell ref="H44:H46"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="A67:A71"/>
+    <mergeCell ref="B54:B59"/>
+    <mergeCell ref="B67:B68"/>
+    <mergeCell ref="B44:B46"/>
+    <mergeCell ref="B69:B70"/>
+    <mergeCell ref="B62:B63"/>
+    <mergeCell ref="B60:B61"/>
+    <mergeCell ref="B71:B72"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="B47:B48"/>
+    <mergeCell ref="A44:A50"/>
+    <mergeCell ref="A54:A63"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="F54:F59"/>
+    <mergeCell ref="F60:F61"/>
+    <mergeCell ref="F62:F63"/>
     <mergeCell ref="F69:F70"/>
-    <mergeCell ref="F76:F77"/>
-    <mergeCell ref="F78:F79"/>
-    <mergeCell ref="F74:F75"/>
-    <mergeCell ref="F65:F66"/>
-    <mergeCell ref="F52:F57"/>
-    <mergeCell ref="F58:F59"/>
-    <mergeCell ref="F60:F61"/>
-    <mergeCell ref="F67:F68"/>
     <mergeCell ref="F4:G4"/>
+    <mergeCell ref="F49:F50"/>
     <mergeCell ref="F47:F48"/>
-    <mergeCell ref="F45:F46"/>
-    <mergeCell ref="F42:F44"/>
+    <mergeCell ref="F44:F46"/>
+    <mergeCell ref="F39:F40"/>
     <mergeCell ref="F37:F38"/>
     <mergeCell ref="F35:F36"/>
-    <mergeCell ref="F33:F34"/>
-    <mergeCell ref="F24:F29"/>
-    <mergeCell ref="F18:F23"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A3:E3"/>
-    <mergeCell ref="A65:A69"/>
-    <mergeCell ref="B52:B57"/>
-    <mergeCell ref="B65:B66"/>
-    <mergeCell ref="B42:B44"/>
-    <mergeCell ref="B67:B68"/>
-    <mergeCell ref="B60:B61"/>
-    <mergeCell ref="B58:B59"/>
-    <mergeCell ref="B69:B70"/>
-    <mergeCell ref="B47:B48"/>
-    <mergeCell ref="B45:B46"/>
-    <mergeCell ref="A42:A48"/>
-    <mergeCell ref="A52:A61"/>
-    <mergeCell ref="B35:B36"/>
-    <mergeCell ref="B37:B38"/>
-    <mergeCell ref="H33:H34"/>
-    <mergeCell ref="B78:B79"/>
-    <mergeCell ref="B74:B75"/>
-    <mergeCell ref="A74:A79"/>
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="H4:H5"/>
-    <mergeCell ref="H74:H75"/>
-    <mergeCell ref="B76:B77"/>
-    <mergeCell ref="A7:A12"/>
-    <mergeCell ref="A16:A29"/>
-    <mergeCell ref="B18:B23"/>
-    <mergeCell ref="B24:B29"/>
-    <mergeCell ref="B33:B34"/>
-    <mergeCell ref="A33:A38"/>
-    <mergeCell ref="H35:H36"/>
-    <mergeCell ref="H42:H44"/>
+    <mergeCell ref="F25:F30"/>
+    <mergeCell ref="F19:F24"/>
+    <mergeCell ref="F71:F72"/>
+    <mergeCell ref="F78:F79"/>
+    <mergeCell ref="F80:F81"/>
+    <mergeCell ref="F76:F77"/>
+    <mergeCell ref="F67:F68"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2446,10 +2571,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B99"/>
+  <dimension ref="A1:B105"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
+    <sheetView topLeftCell="A76" workbookViewId="0">
+      <selection activeCell="A105" sqref="A105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -2459,20 +2584,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="40" t="s">
         <v>100</v>
       </c>
-      <c r="B1" s="39"/>
+      <c r="B1" s="40"/>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="40" t="s">
+      <c r="A2" s="41" t="s">
         <v>101</v>
       </c>
-      <c r="B2" s="41"/>
+      <c r="B2" s="42"/>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="41"/>
-      <c r="B3" s="41"/>
+      <c r="A3" s="42"/>
+      <c r="B3" s="42"/>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
@@ -2509,6 +2634,11 @@
         <v>152</v>
       </c>
     </row>
+    <row r="12" spans="1:2">
+      <c r="A12" t="s">
+        <v>172</v>
+      </c>
+    </row>
     <row r="14" spans="1:2">
       <c r="A14" s="1" t="s">
         <v>154</v>
@@ -2831,6 +2961,32 @@
       </c>
       <c r="B99" t="s">
         <v>91</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" s="2" customFormat="1">
+      <c r="A102" s="2" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2">
+      <c r="A103" t="s">
+        <v>178</v>
+      </c>
+      <c r="B103" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2">
+      <c r="A104" t="s">
+        <v>180</v>
+      </c>
+      <c r="B104" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2">
+      <c r="A105" t="s">
+        <v>183</v>
       </c>
     </row>
   </sheetData>

--- a/UserManual/CMD_Manual.xlsx
+++ b/UserManual/CMD_Manual.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="186">
   <si>
     <t>type=info</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -31,10 +31,6 @@
   </si>
   <si>
     <t>key=nic-traffic</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>type=req</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -980,6 +976,14 @@
   </si>
   <si>
     <t>{"syslog": true} 或者 {"syslog": false}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>type=req</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>filter=20161212#md5</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1197,14 +1201,56 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1215,27 +1261,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1244,27 +1269,6 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1549,7 +1553,7 @@
   <dimension ref="A1:H84"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C40" sqref="C40"/>
+      <selection activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1566,34 +1570,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="30" t="s">
-        <v>99</v>
-      </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
+      <c r="A1" s="44" t="s">
+        <v>98</v>
+      </c>
+      <c r="B1" s="44"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
     </row>
     <row r="2" spans="1:8" ht="51" customHeight="1">
-      <c r="A2" s="37" t="s">
-        <v>28</v>
-      </c>
-      <c r="B2" s="38"/>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38"/>
-      <c r="E2" s="38"/>
+      <c r="A2" s="38" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2" s="39"/>
+      <c r="C2" s="39"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="39"/>
       <c r="F2" s="25"/>
       <c r="G2" s="25"/>
       <c r="H2" s="9"/>
     </row>
     <row r="3" spans="1:8" ht="45" customHeight="1">
-      <c r="A3" s="31" t="s">
-        <v>29</v>
-      </c>
-      <c r="B3" s="31"/>
-      <c r="C3" s="31"/>
-      <c r="D3" s="31"/>
-      <c r="E3" s="31"/>
+      <c r="A3" s="45" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" s="45"/>
+      <c r="C3" s="45"/>
+      <c r="D3" s="45"/>
+      <c r="E3" s="45"/>
       <c r="F3" s="25"/>
       <c r="G3" s="25"/>
       <c r="H3" s="9"/>
@@ -1604,12 +1608,12 @@
       <c r="C4" s="10"/>
       <c r="D4" s="10"/>
       <c r="E4" s="10"/>
-      <c r="F4" s="28" t="s">
+      <c r="F4" s="40" t="s">
+        <v>123</v>
+      </c>
+      <c r="G4" s="40"/>
+      <c r="H4" s="40" t="s">
         <v>124</v>
-      </c>
-      <c r="G4" s="28"/>
-      <c r="H4" s="28" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="5" spans="1:8" s="4" customFormat="1">
@@ -1619,16 +1623,16 @@
       <c r="D5" s="10"/>
       <c r="E5" s="10"/>
       <c r="F5" s="20" t="s">
+        <v>135</v>
+      </c>
+      <c r="G5" s="20" t="s">
         <v>136</v>
       </c>
-      <c r="G5" s="20" t="s">
-        <v>137</v>
-      </c>
-      <c r="H5" s="28"/>
+      <c r="H5" s="40"/>
     </row>
     <row r="6" spans="1:8" s="7" customFormat="1">
       <c r="A6" s="13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B6" s="8"/>
       <c r="C6" s="8"/>
@@ -1638,7 +1642,7 @@
       <c r="G6" s="8"/>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="43" t="s">
+      <c r="A7" s="32" t="s">
         <v>0</v>
       </c>
       <c r="B7" s="19" t="s">
@@ -1646,113 +1650,113 @@
       </c>
       <c r="D7" s="11"/>
       <c r="F7" s="19" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G7" s="19" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="43"/>
+      <c r="A8" s="32"/>
       <c r="B8" s="19" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C8" s="19" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D8" s="11"/>
       <c r="F8" s="19" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G8" s="19" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="43"/>
+      <c r="A9" s="32"/>
       <c r="B9" s="19" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D9" s="11"/>
       <c r="F9" s="19" t="s">
+        <v>128</v>
+      </c>
+      <c r="G9" s="19" t="s">
+        <v>134</v>
+      </c>
+      <c r="H9" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="G9" s="19" t="s">
-        <v>135</v>
-      </c>
-      <c r="H9" s="3" t="s">
-        <v>130</v>
-      </c>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" s="43"/>
+      <c r="A10" s="32"/>
       <c r="B10" s="19" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C10" s="19" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D10" s="11"/>
       <c r="F10" s="19" t="s">
+        <v>133</v>
+      </c>
+      <c r="G10" s="19" t="s">
         <v>134</v>
       </c>
-      <c r="G10" s="19" t="s">
-        <v>135</v>
-      </c>
     </row>
     <row r="11" spans="1:8">
-      <c r="A11" s="43"/>
+      <c r="A11" s="32"/>
       <c r="B11" s="19" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C11" s="19" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D11" s="11"/>
       <c r="F11" s="19" t="s">
+        <v>165</v>
+      </c>
+      <c r="H11" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="H11" s="3" t="s">
-        <v>167</v>
-      </c>
     </row>
     <row r="12" spans="1:8">
-      <c r="A12" s="43"/>
+      <c r="A12" s="32"/>
       <c r="B12" s="19" t="s">
         <v>2</v>
       </c>
       <c r="C12" s="19" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D12" s="11"/>
       <c r="F12" s="19" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G12" s="19" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="13" spans="1:8">
-      <c r="A13" s="43"/>
-      <c r="B13" s="44" t="s">
+      <c r="A13" s="32"/>
+      <c r="B13" s="27" t="s">
+        <v>174</v>
+      </c>
+      <c r="C13" s="27" t="s">
         <v>175</v>
       </c>
-      <c r="C13" s="44" t="s">
-        <v>176</v>
-      </c>
-      <c r="D13" s="45"/>
-      <c r="E13" s="44"/>
-      <c r="F13" s="44" t="s">
+      <c r="D13" s="28"/>
+      <c r="E13" s="27"/>
+      <c r="F13" s="27" t="s">
+        <v>172</v>
+      </c>
+      <c r="G13" s="27" t="s">
         <v>173</v>
-      </c>
-      <c r="G13" s="44" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -1769,7 +1773,7 @@
     </row>
     <row r="16" spans="1:8" s="7" customFormat="1">
       <c r="A16" s="13" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B16" s="8"/>
       <c r="C16" s="8"/>
@@ -1779,189 +1783,189 @@
       <c r="G16" s="8"/>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="48" t="s">
-        <v>3</v>
+      <c r="A17" s="33" t="s">
+        <v>184</v>
       </c>
       <c r="B17" s="19" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C17" s="19" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D17" s="11"/>
       <c r="F17" s="19" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G17" s="19" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" s="48"/>
+      <c r="A18" s="33"/>
       <c r="B18" s="19" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C18" s="19" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D18" s="11"/>
       <c r="F18" s="22" t="s">
+        <v>147</v>
+      </c>
+      <c r="G18" s="19" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="33"/>
+      <c r="B19" s="42" t="s">
+        <v>142</v>
+      </c>
+      <c r="C19" s="19" t="s">
+        <v>144</v>
+      </c>
+      <c r="D19" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="F19" s="41" t="s">
         <v>148</v>
       </c>
-      <c r="G18" s="19" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7">
-      <c r="A19" s="48"/>
-      <c r="B19" s="27" t="s">
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="33"/>
+      <c r="B20" s="42"/>
+      <c r="C20" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="D20" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="F20" s="41"/>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="33"/>
+      <c r="B21" s="42"/>
+      <c r="C21" s="19" t="s">
+        <v>140</v>
+      </c>
+      <c r="D21" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="F21" s="41"/>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="33"/>
+      <c r="B22" s="42"/>
+      <c r="C22" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="D22" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="F22" s="41"/>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="33"/>
+      <c r="B23" s="42"/>
+      <c r="C23" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="D23" s="11"/>
+      <c r="F23" s="41"/>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="33"/>
+      <c r="B24" s="42"/>
+      <c r="C24" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="F24" s="41"/>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="33"/>
+      <c r="B25" s="42" t="s">
+        <v>7</v>
+      </c>
+      <c r="C25" s="19" t="s">
+        <v>144</v>
+      </c>
+      <c r="D25" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="F25" s="42" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="33"/>
+      <c r="B26" s="42"/>
+      <c r="C26" s="19" t="s">
+        <v>145</v>
+      </c>
+      <c r="D26" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="F26" s="42"/>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" s="33"/>
+      <c r="B27" s="42"/>
+      <c r="C27" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="D27" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="F27" s="42"/>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" s="33"/>
+      <c r="B28" s="42"/>
+      <c r="C28" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="D28" s="12" t="s">
+        <v>185</v>
+      </c>
+      <c r="F28" s="42"/>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" s="33"/>
+      <c r="B29" s="42"/>
+      <c r="C29" s="23" t="s">
         <v>143</v>
       </c>
-      <c r="C19" s="19" t="s">
-        <v>145</v>
-      </c>
-      <c r="D19" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="F19" s="29" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
-      <c r="A20" s="48"/>
-      <c r="B20" s="27"/>
-      <c r="C20" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="D20" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="F20" s="29"/>
-    </row>
-    <row r="21" spans="1:7">
-      <c r="A21" s="48"/>
-      <c r="B21" s="27"/>
-      <c r="C21" s="19" t="s">
-        <v>141</v>
-      </c>
-      <c r="D21" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="F21" s="29"/>
-    </row>
-    <row r="22" spans="1:7">
-      <c r="A22" s="48"/>
-      <c r="B22" s="27"/>
-      <c r="C22" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="D22" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="F22" s="29"/>
-    </row>
-    <row r="23" spans="1:7">
-      <c r="A23" s="48"/>
-      <c r="B23" s="27"/>
-      <c r="C23" s="23" t="s">
+      <c r="D29" s="12"/>
+      <c r="F29" s="42"/>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" s="33"/>
+      <c r="B30" s="42"/>
+      <c r="C30" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="D23" s="11"/>
-      <c r="F23" s="29"/>
-    </row>
-    <row r="24" spans="1:7">
-      <c r="A24" s="48"/>
-      <c r="B24" s="27"/>
-      <c r="C24" s="23" t="s">
-        <v>27</v>
-      </c>
-      <c r="D24" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="F24" s="29"/>
-    </row>
-    <row r="25" spans="1:7">
-      <c r="A25" s="48"/>
-      <c r="B25" s="27" t="s">
-        <v>8</v>
-      </c>
-      <c r="C25" s="19" t="s">
-        <v>145</v>
-      </c>
-      <c r="D25" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="F25" s="27" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
-      <c r="A26" s="48"/>
-      <c r="B26" s="27"/>
-      <c r="C26" s="19" t="s">
-        <v>146</v>
-      </c>
-      <c r="D26" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="F26" s="27"/>
-    </row>
-    <row r="27" spans="1:7">
-      <c r="A27" s="48"/>
-      <c r="B27" s="27"/>
-      <c r="C27" s="19" t="s">
+      <c r="D30" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="D27" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="F27" s="27"/>
-    </row>
-    <row r="28" spans="1:7">
-      <c r="A28" s="48"/>
-      <c r="B28" s="27"/>
-      <c r="C28" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="D28" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="F28" s="27"/>
-    </row>
-    <row r="29" spans="1:7">
-      <c r="A29" s="48"/>
-      <c r="B29" s="27"/>
-      <c r="C29" s="23" t="s">
-        <v>144</v>
-      </c>
-      <c r="D29" s="12"/>
-      <c r="F29" s="27"/>
-    </row>
-    <row r="30" spans="1:7">
-      <c r="A30" s="48"/>
-      <c r="B30" s="27"/>
-      <c r="C30" s="23" t="s">
-        <v>27</v>
-      </c>
-      <c r="D30" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="F30" s="27"/>
+      <c r="F30" s="42"/>
     </row>
     <row r="31" spans="1:7">
-      <c r="A31" s="48"/>
-      <c r="B31" s="46" t="s">
-        <v>175</v>
-      </c>
-      <c r="C31" s="47" t="s">
-        <v>177</v>
-      </c>
-      <c r="D31" s="47"/>
-      <c r="E31" s="47"/>
-      <c r="F31" s="49" t="s">
-        <v>184</v>
-      </c>
-      <c r="G31" s="47"/>
+      <c r="A31" s="33"/>
+      <c r="B31" s="29" t="s">
+        <v>174</v>
+      </c>
+      <c r="C31" s="30" t="s">
+        <v>176</v>
+      </c>
+      <c r="D31" s="30"/>
+      <c r="E31" s="30"/>
+      <c r="F31" s="31" t="s">
+        <v>183</v>
+      </c>
+      <c r="G31" s="30"/>
     </row>
     <row r="32" spans="1:7">
       <c r="A32" s="26"/>
@@ -1977,7 +1981,7 @@
     </row>
     <row r="34" spans="1:8" s="7" customFormat="1">
       <c r="A34" s="13" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B34" s="8"/>
       <c r="C34" s="8"/>
@@ -1987,85 +1991,85 @@
       <c r="G34" s="8"/>
     </row>
     <row r="35" spans="1:8">
-      <c r="A35" s="39" t="s">
-        <v>4</v>
-      </c>
-      <c r="B35" s="27" t="s">
+      <c r="A35" s="43" t="s">
+        <v>3</v>
+      </c>
+      <c r="B35" s="42" t="s">
+        <v>12</v>
+      </c>
+      <c r="C35" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="D35" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="E35" s="19" t="s">
+        <v>170</v>
+      </c>
+      <c r="F35" s="42" t="s">
+        <v>156</v>
+      </c>
+      <c r="H35" s="34" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
+      <c r="A36" s="43"/>
+      <c r="B36" s="42"/>
+      <c r="C36" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="D36" s="12"/>
+      <c r="F36" s="42"/>
+      <c r="H36" s="34"/>
+    </row>
+    <row r="37" spans="1:8">
+      <c r="A37" s="43"/>
+      <c r="B37" s="42" t="s">
+        <v>14</v>
+      </c>
+      <c r="C37" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="D37" s="16"/>
+      <c r="F37" s="42" t="s">
+        <v>157</v>
+      </c>
+      <c r="H37" s="41" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
+      <c r="A38" s="43"/>
+      <c r="B38" s="42"/>
+      <c r="C38" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D38" s="16"/>
+      <c r="F38" s="42"/>
+      <c r="H38" s="41"/>
+    </row>
+    <row r="39" spans="1:8">
+      <c r="A39" s="43"/>
+      <c r="B39" s="42" t="s">
         <v>13</v>
       </c>
-      <c r="C35" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="D35" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="E35" s="19" t="s">
-        <v>171</v>
-      </c>
-      <c r="F35" s="27" t="s">
-        <v>157</v>
-      </c>
-      <c r="H35" s="36" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8">
-      <c r="A36" s="39"/>
-      <c r="B36" s="27"/>
-      <c r="C36" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="D36" s="12"/>
-      <c r="F36" s="27"/>
-      <c r="H36" s="36"/>
-    </row>
-    <row r="37" spans="1:8">
-      <c r="A37" s="39"/>
-      <c r="B37" s="27" t="s">
+      <c r="C39" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="C37" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="D37" s="16"/>
-      <c r="F37" s="27" t="s">
+      <c r="D39" s="16"/>
+      <c r="F39" s="42" t="s">
         <v>158</v>
       </c>
-      <c r="H37" s="29" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8">
-      <c r="A38" s="39"/>
-      <c r="B38" s="27"/>
-      <c r="C38" s="5" t="s">
+    </row>
+    <row r="40" spans="1:8">
+      <c r="A40" s="43"/>
+      <c r="B40" s="42"/>
+      <c r="C40" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="D38" s="16"/>
-      <c r="F38" s="27"/>
-      <c r="H38" s="29"/>
-    </row>
-    <row r="39" spans="1:8">
-      <c r="A39" s="39"/>
-      <c r="B39" s="27" t="s">
-        <v>14</v>
-      </c>
-      <c r="C39" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="D39" s="16"/>
-      <c r="F39" s="27" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8">
-      <c r="A40" s="39"/>
-      <c r="B40" s="27"/>
-      <c r="C40" s="5" t="s">
-        <v>22</v>
-      </c>
       <c r="D40" s="16"/>
-      <c r="F40" s="27"/>
+      <c r="F40" s="42"/>
     </row>
     <row r="41" spans="1:8">
       <c r="A41" s="8"/>
@@ -2077,7 +2081,7 @@
     </row>
     <row r="43" spans="1:8" s="7" customFormat="1">
       <c r="A43" s="13" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B43" s="8"/>
       <c r="C43" s="8"/>
@@ -2087,88 +2091,88 @@
       <c r="G43" s="8"/>
     </row>
     <row r="44" spans="1:8">
-      <c r="A44" s="32" t="s">
-        <v>5</v>
-      </c>
-      <c r="B44" s="27" t="s">
+      <c r="A44" s="46" t="s">
+        <v>4</v>
+      </c>
+      <c r="B44" s="42" t="s">
+        <v>12</v>
+      </c>
+      <c r="C44" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="D44" s="16"/>
+      <c r="F44" s="42" t="s">
+        <v>156</v>
+      </c>
+      <c r="H44" s="41" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
+      <c r="A45" s="46"/>
+      <c r="B45" s="42"/>
+      <c r="C45" s="19" t="s">
+        <v>139</v>
+      </c>
+      <c r="D45" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="F45" s="42"/>
+      <c r="H45" s="41"/>
+    </row>
+    <row r="46" spans="1:8">
+      <c r="A46" s="46"/>
+      <c r="B46" s="42"/>
+      <c r="C46" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="D46" s="16"/>
+      <c r="F46" s="42"/>
+      <c r="H46" s="41"/>
+    </row>
+    <row r="47" spans="1:8">
+      <c r="A47" s="46"/>
+      <c r="B47" s="42" t="s">
+        <v>14</v>
+      </c>
+      <c r="C47" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="D47" s="16"/>
+      <c r="F47" s="42" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
+      <c r="A48" s="46"/>
+      <c r="B48" s="42"/>
+      <c r="C48" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D48" s="16"/>
+      <c r="F48" s="42"/>
+    </row>
+    <row r="49" spans="1:8">
+      <c r="A49" s="46"/>
+      <c r="B49" s="42" t="s">
         <v>13</v>
       </c>
-      <c r="C44" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="D44" s="16"/>
-      <c r="F44" s="27" t="s">
-        <v>157</v>
-      </c>
-      <c r="H44" s="29" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8">
-      <c r="A45" s="32"/>
-      <c r="B45" s="27"/>
-      <c r="C45" s="19" t="s">
-        <v>140</v>
-      </c>
-      <c r="D45" s="11" t="s">
-        <v>139</v>
-      </c>
-      <c r="F45" s="27"/>
-      <c r="H45" s="29"/>
-    </row>
-    <row r="46" spans="1:8">
-      <c r="A46" s="32"/>
-      <c r="B46" s="27"/>
-      <c r="C46" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="D46" s="16"/>
-      <c r="F46" s="27"/>
-      <c r="H46" s="29"/>
-    </row>
-    <row r="47" spans="1:8">
-      <c r="A47" s="32"/>
-      <c r="B47" s="27" t="s">
+      <c r="C49" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="C47" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="D47" s="16"/>
-      <c r="F47" s="27" t="s">
+      <c r="D49" s="16"/>
+      <c r="F49" s="42" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="48" spans="1:8">
-      <c r="A48" s="32"/>
-      <c r="B48" s="27"/>
-      <c r="C48" s="5" t="s">
+    <row r="50" spans="1:8">
+      <c r="A50" s="46"/>
+      <c r="B50" s="42"/>
+      <c r="C50" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="D48" s="16"/>
-      <c r="F48" s="27"/>
-    </row>
-    <row r="49" spans="1:8">
-      <c r="A49" s="32"/>
-      <c r="B49" s="27" t="s">
-        <v>14</v>
-      </c>
-      <c r="C49" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="D49" s="16"/>
-      <c r="F49" s="27" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8">
-      <c r="A50" s="32"/>
-      <c r="B50" s="27"/>
-      <c r="C50" s="5" t="s">
-        <v>22</v>
-      </c>
       <c r="D50" s="16"/>
-      <c r="F50" s="27"/>
+      <c r="F50" s="42"/>
     </row>
     <row r="51" spans="1:8">
       <c r="D51" s="16"/>
@@ -2178,7 +2182,7 @@
     </row>
     <row r="53" spans="1:8" s="7" customFormat="1">
       <c r="A53" s="13" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B53" s="8"/>
       <c r="C53" s="8"/>
@@ -2188,159 +2192,159 @@
       <c r="G53" s="8"/>
     </row>
     <row r="54" spans="1:8">
-      <c r="A54" s="35" t="s">
-        <v>6</v>
-      </c>
-      <c r="B54" s="33" t="s">
+      <c r="A54" s="37" t="s">
+        <v>5</v>
+      </c>
+      <c r="B54" s="36" t="s">
+        <v>12</v>
+      </c>
+      <c r="C54" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="D54" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="E54" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="F54" s="42" t="s">
+        <v>156</v>
+      </c>
+      <c r="H54" s="5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
+      <c r="A55" s="37"/>
+      <c r="B55" s="35"/>
+      <c r="C55" s="23" t="s">
+        <v>145</v>
+      </c>
+      <c r="D55" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="E55" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="F55" s="42"/>
+      <c r="H55" s="6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
+      <c r="A56" s="37"/>
+      <c r="B56" s="35"/>
+      <c r="C56" s="23" t="s">
+        <v>140</v>
+      </c>
+      <c r="D56" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="E56" s="12" t="s">
+        <v>154</v>
+      </c>
+      <c r="F56" s="42"/>
+      <c r="H56" s="6" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
+      <c r="A57" s="37"/>
+      <c r="B57" s="35"/>
+      <c r="C57" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="D57" s="23" t="s">
+        <v>155</v>
+      </c>
+      <c r="E57" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="F57" s="42"/>
+      <c r="H57" s="6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
+      <c r="A58" s="37"/>
+      <c r="B58" s="35"/>
+      <c r="C58" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="D58" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="E58" s="12"/>
+      <c r="F58" s="42"/>
+      <c r="H58" s="6" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
+      <c r="A59" s="37"/>
+      <c r="B59" s="35"/>
+      <c r="C59" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D59" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="E59" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="F59" s="42"/>
+      <c r="H59" s="6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
+      <c r="A60" s="37"/>
+      <c r="B60" s="36" t="s">
+        <v>14</v>
+      </c>
+      <c r="C60" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="D60" s="12"/>
+      <c r="F60" s="42" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
+      <c r="A61" s="37"/>
+      <c r="B61" s="36"/>
+      <c r="C61" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D61" s="12"/>
+      <c r="F61" s="42"/>
+    </row>
+    <row r="62" spans="1:8">
+      <c r="A62" s="37"/>
+      <c r="B62" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="C54" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="D54" s="24" t="s">
-        <v>18</v>
-      </c>
-      <c r="E54" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="F54" s="27" t="s">
-        <v>157</v>
-      </c>
-      <c r="H54" s="5" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8">
-      <c r="A55" s="35"/>
-      <c r="B55" s="34"/>
-      <c r="C55" s="23" t="s">
-        <v>146</v>
-      </c>
-      <c r="D55" s="23" t="s">
-        <v>18</v>
-      </c>
-      <c r="E55" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="F55" s="27"/>
-      <c r="H55" s="6" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8">
-      <c r="A56" s="35"/>
-      <c r="B56" s="34"/>
-      <c r="C56" s="23" t="s">
-        <v>141</v>
-      </c>
-      <c r="D56" s="23" t="s">
-        <v>18</v>
-      </c>
-      <c r="E56" s="12" t="s">
-        <v>155</v>
-      </c>
-      <c r="F56" s="27"/>
-      <c r="H56" s="6" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8">
-      <c r="A57" s="35"/>
-      <c r="B57" s="34"/>
-      <c r="C57" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="D57" s="23" t="s">
-        <v>156</v>
-      </c>
-      <c r="E57" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="F57" s="27"/>
-      <c r="H57" s="6" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8">
-      <c r="A58" s="35"/>
-      <c r="B58" s="34"/>
-      <c r="C58" s="23" t="s">
-        <v>26</v>
-      </c>
-      <c r="D58" s="23" t="s">
-        <v>18</v>
-      </c>
-      <c r="E58" s="12"/>
-      <c r="F58" s="27"/>
-      <c r="H58" s="6" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8">
-      <c r="A59" s="35"/>
-      <c r="B59" s="34"/>
-      <c r="C59" s="23" t="s">
-        <v>27</v>
-      </c>
-      <c r="D59" s="23" t="s">
-        <v>18</v>
-      </c>
-      <c r="E59" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="F59" s="27"/>
-      <c r="H59" s="6" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8">
-      <c r="A60" s="35"/>
-      <c r="B60" s="33" t="s">
+      <c r="C62" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="C60" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="D60" s="12"/>
-      <c r="F60" s="27" t="s">
+      <c r="D62" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="F62" s="42" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="61" spans="1:8">
-      <c r="A61" s="35"/>
-      <c r="B61" s="33"/>
-      <c r="C61" s="5" t="s">
+    <row r="63" spans="1:8">
+      <c r="A63" s="37"/>
+      <c r="B63" s="35"/>
+      <c r="C63" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="D61" s="12"/>
-      <c r="F61" s="27"/>
-    </row>
-    <row r="62" spans="1:8">
-      <c r="A62" s="35"/>
-      <c r="B62" s="34" t="s">
-        <v>14</v>
-      </c>
-      <c r="C62" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="D62" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="F62" s="27" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8">
-      <c r="A63" s="35"/>
-      <c r="B63" s="34"/>
-      <c r="C63" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="F63" s="27"/>
+      <c r="F63" s="42"/>
     </row>
     <row r="66" spans="1:8" s="7" customFormat="1">
       <c r="A66" s="13" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B66" s="8"/>
       <c r="C66" s="8"/>
@@ -2350,71 +2354,71 @@
       <c r="G66" s="8"/>
     </row>
     <row r="67" spans="1:8">
-      <c r="A67" s="32" t="s">
-        <v>7</v>
-      </c>
-      <c r="B67" s="33" t="s">
+      <c r="A67" s="46" t="s">
+        <v>6</v>
+      </c>
+      <c r="B67" s="36" t="s">
+        <v>12</v>
+      </c>
+      <c r="C67" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="F67" s="42" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
+      <c r="A68" s="46"/>
+      <c r="B68" s="35"/>
+      <c r="C68" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="F68" s="42"/>
+    </row>
+    <row r="69" spans="1:8">
+      <c r="A69" s="46"/>
+      <c r="B69" s="35" t="s">
+        <v>14</v>
+      </c>
+      <c r="C69" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="F69" s="42" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
+      <c r="A70" s="46"/>
+      <c r="B70" s="35"/>
+      <c r="C70" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D70" s="12"/>
+      <c r="F70" s="42"/>
+    </row>
+    <row r="71" spans="1:8">
+      <c r="A71" s="46"/>
+      <c r="B71" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="C67" s="24" t="s">
-        <v>25</v>
-      </c>
-      <c r="F67" s="27" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8">
-      <c r="A68" s="32"/>
-      <c r="B68" s="34"/>
-      <c r="C68" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="F68" s="27"/>
-    </row>
-    <row r="69" spans="1:8">
-      <c r="A69" s="32"/>
-      <c r="B69" s="34" t="s">
+      <c r="C71" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="C69" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="F69" s="27" t="s">
+      <c r="F71" s="42" t="s">
         <v>158</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8">
-      <c r="A70" s="32"/>
-      <c r="B70" s="34"/>
-      <c r="C70" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D70" s="12"/>
-      <c r="F70" s="27"/>
-    </row>
-    <row r="71" spans="1:8">
-      <c r="A71" s="32"/>
-      <c r="B71" s="34" t="s">
-        <v>14</v>
-      </c>
-      <c r="C71" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="F71" s="27" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="72" spans="1:8">
       <c r="A72" s="21"/>
-      <c r="B72" s="34"/>
+      <c r="B72" s="35"/>
       <c r="C72" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="F72" s="27"/>
+        <v>21</v>
+      </c>
+      <c r="F72" s="42"/>
     </row>
     <row r="75" spans="1:8" s="7" customFormat="1">
       <c r="A75" s="13" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B75" s="8"/>
       <c r="C75" s="8"/>
@@ -2424,110 +2428,96 @@
       <c r="G75" s="8"/>
     </row>
     <row r="76" spans="1:8">
-      <c r="A76" s="35" t="s">
+      <c r="A76" s="37" t="s">
+        <v>32</v>
+      </c>
+      <c r="B76" s="36" t="s">
+        <v>12</v>
+      </c>
+      <c r="C76" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="D76" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="B76" s="33" t="s">
+      <c r="F76" s="42" t="s">
+        <v>156</v>
+      </c>
+      <c r="H76" s="41" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
+      <c r="A77" s="37"/>
+      <c r="B77" s="36"/>
+      <c r="C77" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="D77" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="F77" s="42"/>
+      <c r="H77" s="41"/>
+    </row>
+    <row r="78" spans="1:8">
+      <c r="A78" s="37"/>
+      <c r="B78" s="35" t="s">
+        <v>14</v>
+      </c>
+      <c r="C78" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="F78" s="42" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
+      <c r="A79" s="37"/>
+      <c r="B79" s="35"/>
+      <c r="C79" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D79" s="12"/>
+      <c r="F79" s="42"/>
+    </row>
+    <row r="80" spans="1:8">
+      <c r="A80" s="37"/>
+      <c r="B80" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="C76" s="23" t="s">
-        <v>40</v>
-      </c>
-      <c r="D76" s="24" t="s">
-        <v>34</v>
-      </c>
-      <c r="F76" s="27" t="s">
-        <v>157</v>
-      </c>
-      <c r="H76" s="29" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8">
-      <c r="A77" s="35"/>
-      <c r="B77" s="33"/>
-      <c r="C77" s="23" t="s">
-        <v>39</v>
-      </c>
-      <c r="D77" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="F77" s="27"/>
-      <c r="H77" s="29"/>
-    </row>
-    <row r="78" spans="1:8">
-      <c r="A78" s="35"/>
-      <c r="B78" s="34" t="s">
+      <c r="C80" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="C78" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="F78" s="27" t="s">
+      <c r="F80" s="42" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="79" spans="1:8">
-      <c r="A79" s="35"/>
-      <c r="B79" s="34"/>
-      <c r="C79" s="5" t="s">
+    <row r="81" spans="1:6">
+      <c r="A81" s="37"/>
+      <c r="B81" s="35"/>
+      <c r="C81" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="D79" s="12"/>
-      <c r="F79" s="27"/>
-    </row>
-    <row r="80" spans="1:8">
-      <c r="A80" s="35"/>
-      <c r="B80" s="34" t="s">
-        <v>14</v>
-      </c>
-      <c r="C80" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="F80" s="27" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6">
-      <c r="A81" s="35"/>
-      <c r="B81" s="34"/>
-      <c r="C81" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="F81" s="27"/>
+      <c r="F81" s="42"/>
     </row>
     <row r="84" spans="1:6">
       <c r="A84" s="18" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B84" s="18"/>
       <c r="C84" s="18" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D84" s="18"/>
       <c r="E84" s="18"/>
       <c r="F84" s="18" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="50">
-    <mergeCell ref="A7:A13"/>
-    <mergeCell ref="A17:A31"/>
-    <mergeCell ref="H35:H36"/>
-    <mergeCell ref="B80:B81"/>
-    <mergeCell ref="B76:B77"/>
-    <mergeCell ref="A76:A81"/>
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="H4:H5"/>
-    <mergeCell ref="H76:H77"/>
-    <mergeCell ref="B78:B79"/>
-    <mergeCell ref="B19:B24"/>
-    <mergeCell ref="B25:B30"/>
-    <mergeCell ref="B35:B36"/>
-    <mergeCell ref="A35:A40"/>
-    <mergeCell ref="H37:H38"/>
-    <mergeCell ref="H44:H46"/>
+    <mergeCell ref="F76:F77"/>
+    <mergeCell ref="F67:F68"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="A3:E3"/>
     <mergeCell ref="A67:A71"/>
@@ -2544,12 +2534,28 @@
     <mergeCell ref="A54:A63"/>
     <mergeCell ref="B37:B38"/>
     <mergeCell ref="B39:B40"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="H4:H5"/>
+    <mergeCell ref="H76:H77"/>
+    <mergeCell ref="B78:B79"/>
+    <mergeCell ref="B19:B24"/>
+    <mergeCell ref="B25:B30"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="A35:A40"/>
+    <mergeCell ref="H37:H38"/>
+    <mergeCell ref="H44:H46"/>
     <mergeCell ref="F54:F59"/>
     <mergeCell ref="F60:F61"/>
     <mergeCell ref="F62:F63"/>
     <mergeCell ref="F69:F70"/>
     <mergeCell ref="F4:G4"/>
     <mergeCell ref="F49:F50"/>
+    <mergeCell ref="A7:A13"/>
+    <mergeCell ref="A17:A31"/>
+    <mergeCell ref="H35:H36"/>
+    <mergeCell ref="B80:B81"/>
+    <mergeCell ref="B76:B77"/>
+    <mergeCell ref="A76:A81"/>
     <mergeCell ref="F47:F48"/>
     <mergeCell ref="F44:F46"/>
     <mergeCell ref="F39:F40"/>
@@ -2560,8 +2566,6 @@
     <mergeCell ref="F71:F72"/>
     <mergeCell ref="F78:F79"/>
     <mergeCell ref="F80:F81"/>
-    <mergeCell ref="F76:F77"/>
-    <mergeCell ref="F67:F68"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2584,409 +2588,409 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="47" t="s">
+        <v>99</v>
+      </c>
+      <c r="B1" s="47"/>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="48" t="s">
         <v>100</v>
       </c>
-      <c r="B1" s="40"/>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="41" t="s">
-        <v>101</v>
-      </c>
-      <c r="B2" s="42"/>
+      <c r="B2" s="49"/>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="42"/>
-      <c r="B3" s="42"/>
+      <c r="A3" s="49"/>
+      <c r="B3" s="49"/>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B31" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B32" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B44" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="49" spans="1:1">
       <c r="A49" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="50" spans="1:1">
       <c r="A50" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="52" spans="1:1">
       <c r="A52" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="53" spans="1:1">
       <c r="A53" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="56" spans="1:1">
       <c r="A56" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="57" spans="1:1">
       <c r="A57" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="59" spans="1:1">
       <c r="A59" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="60" spans="1:1">
       <c r="A60" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="62" spans="1:1">
       <c r="A62" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="63" spans="1:1">
       <c r="A63" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="65" spans="1:1">
       <c r="A65" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="66" spans="1:1">
       <c r="A66" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="69" spans="1:1">
       <c r="A69" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="70" spans="1:1">
       <c r="A70" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="72" spans="1:1">
       <c r="A72" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="73" spans="1:1">
       <c r="A73" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="74" spans="1:1">
       <c r="A74" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="75" spans="1:1">
       <c r="A75" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="77" spans="1:1">
       <c r="A77" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="78" spans="1:1">
       <c r="A78" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="80" spans="1:1">
       <c r="A80" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="81" spans="1:2">
       <c r="A81" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="85" spans="1:2">
       <c r="A85" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="86" spans="1:2">
       <c r="A86" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B86" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="87" spans="1:2">
       <c r="A87" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B87" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="90" spans="1:2" s="2" customFormat="1">
       <c r="A90" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="91" spans="1:2">
       <c r="A91" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B91" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="92" spans="1:2">
       <c r="A92" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B92" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="93" spans="1:2">
       <c r="A93" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B93" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="94" spans="1:2">
       <c r="A94" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B94" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="96" spans="1:2">
       <c r="A96" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B96" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="97" spans="1:2">
       <c r="A97" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B97" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="98" spans="1:2">
       <c r="A98" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B98" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="99" spans="1:2">
       <c r="A99" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B99" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="102" spans="1:2" s="2" customFormat="1">
       <c r="A102" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="103" spans="1:2">
       <c r="A103" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B103" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="104" spans="1:2">
       <c r="A104" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B104" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="105" spans="1:2">
       <c r="A105" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
   </sheetData>

--- a/UserManual/CMD_Manual.xlsx
+++ b/UserManual/CMD_Manual.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="命令查询表" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="188">
   <si>
     <t>type=info</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -314,14 +314,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>exp="src 10.10.88.173 or dst 10.10.88.173"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>exp="src 10.10.88.173 and dst port 8300"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>filter=20161212#md5</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -427,9 +419,6 @@
   </si>
   <si>
     <t>curl -d "type=parse&amp;key=start" http://10.10.88.173:1234</t>
-  </si>
-  <si>
-    <t>curl -d "type=parse&amp;key=start&amp;value=201612&amp;nofilter=p5p2" http://10.10.88.173:1234</t>
   </si>
   <si>
     <t>curl -d "type=parse&amp;key=status" http://10.10.88.173:1234</t>
@@ -638,14 +627,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>curl -d "type=filter&amp;key=start&amp;value=/backup/20161218_164942_em2.pcap&amp;exp=\"dst port 22\"" http://10.10.88.173:1234</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>curl -d "type=pcap&amp;key=start" http://10.10.88.173:1234</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>curl -d "type=pcap&amp;key=stop" http://10.10.88.173:1234</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -984,6 +965,34 @@
   </si>
   <si>
     <t>filter=20161212#md5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>curl -d "type=pcap&amp;key=start" http://10.10.88.173:1234</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>exp="src 10.10.88.173 and dst port 8300"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>curl -d "type=filter&amp;key=start&amp;value=/backup/20161218_164942_em2.pcap&amp;exp=\"dst port 22\"" http://10.10.88.173:1234</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>curl -d "type=filter&amp;key=start&amp;value=/backup/173_20161228_195341_p5p2.pcap&amp;exp=\"ip 10.10.88.173\"" http://10.10.88.173:1234</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>curl -d "type=filter&amp;key=start&amp;value=/backup/173_20161228_195341_p5p2.pcap&amp;exp=\"dst 10.10.88.173\"" http://10.10.88.173:1234</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>exp="host 10.10.88.173"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>p</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1216,41 +1225,41 @@
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1552,8 +1561,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D36" sqref="D36"/>
+    <sheetView topLeftCell="B22" workbookViewId="0">
+      <selection activeCell="D77" sqref="D77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1571,7 +1580,7 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="44" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B1" s="44"/>
       <c r="C1" s="44"/>
@@ -1579,13 +1588,13 @@
       <c r="E1" s="44"/>
     </row>
     <row r="2" spans="1:8" ht="51" customHeight="1">
-      <c r="A2" s="38" t="s">
+      <c r="A2" s="39" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="39"/>
-      <c r="C2" s="39"/>
-      <c r="D2" s="39"/>
-      <c r="E2" s="39"/>
+      <c r="B2" s="40"/>
+      <c r="C2" s="40"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="40"/>
       <c r="F2" s="25"/>
       <c r="G2" s="25"/>
       <c r="H2" s="9"/>
@@ -1608,12 +1617,12 @@
       <c r="C4" s="10"/>
       <c r="D4" s="10"/>
       <c r="E4" s="10"/>
-      <c r="F4" s="40" t="s">
-        <v>123</v>
-      </c>
-      <c r="G4" s="40"/>
-      <c r="H4" s="40" t="s">
-        <v>124</v>
+      <c r="F4" s="41" t="s">
+        <v>118</v>
+      </c>
+      <c r="G4" s="41"/>
+      <c r="H4" s="41" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="5" spans="1:8" s="4" customFormat="1">
@@ -1623,16 +1632,16 @@
       <c r="D5" s="10"/>
       <c r="E5" s="10"/>
       <c r="F5" s="20" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="G5" s="20" t="s">
-        <v>136</v>
-      </c>
-      <c r="H5" s="40"/>
+        <v>131</v>
+      </c>
+      <c r="H5" s="41"/>
     </row>
     <row r="6" spans="1:8" s="7" customFormat="1">
       <c r="A6" s="13" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B6" s="8"/>
       <c r="C6" s="8"/>
@@ -1642,7 +1651,7 @@
       <c r="G6" s="8"/>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="32" t="s">
+      <c r="A7" s="42" t="s">
         <v>0</v>
       </c>
       <c r="B7" s="19" t="s">
@@ -1650,84 +1659,84 @@
       </c>
       <c r="D7" s="11"/>
       <c r="F7" s="19" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="G7" s="19" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="32"/>
+      <c r="A8" s="42"/>
       <c r="B8" s="19" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="C8" s="19" t="s">
         <v>19</v>
       </c>
       <c r="D8" s="11"/>
       <c r="F8" s="19" t="s">
+        <v>117</v>
+      </c>
+      <c r="G8" s="19" t="s">
+        <v>129</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="42"/>
+      <c r="B9" s="19" t="s">
         <v>122</v>
-      </c>
-      <c r="G8" s="19" t="s">
-        <v>134</v>
-      </c>
-      <c r="H8" s="3" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="A9" s="32"/>
-      <c r="B9" s="19" t="s">
-        <v>127</v>
       </c>
       <c r="D9" s="11"/>
       <c r="F9" s="19" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="G9" s="19" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" s="32"/>
+      <c r="A10" s="42"/>
       <c r="B10" s="19" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="C10" s="19" t="s">
         <v>18</v>
       </c>
       <c r="D10" s="11"/>
       <c r="F10" s="19" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="G10" s="19" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
     </row>
     <row r="11" spans="1:8">
-      <c r="A11" s="32"/>
+      <c r="A11" s="42"/>
       <c r="B11" s="19" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="C11" s="19" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="D11" s="11"/>
       <c r="F11" s="19" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
     </row>
     <row r="12" spans="1:8">
-      <c r="A12" s="32"/>
+      <c r="A12" s="42"/>
       <c r="B12" s="19" t="s">
         <v>2</v>
       </c>
@@ -1736,27 +1745,27 @@
       </c>
       <c r="D12" s="11"/>
       <c r="F12" s="19" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="G12" s="19" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
     </row>
     <row r="13" spans="1:8">
-      <c r="A13" s="32"/>
+      <c r="A13" s="42"/>
       <c r="B13" s="27" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="C13" s="27" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="D13" s="28"/>
       <c r="E13" s="27"/>
       <c r="F13" s="27" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="G13" s="27" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -1773,7 +1782,7 @@
     </row>
     <row r="16" spans="1:8" s="7" customFormat="1">
       <c r="A16" s="13" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B16" s="8"/>
       <c r="C16" s="8"/>
@@ -1783,187 +1792,187 @@
       <c r="G16" s="8"/>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="33" t="s">
-        <v>184</v>
+      <c r="A17" s="38" t="s">
+        <v>179</v>
       </c>
       <c r="B17" s="19" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="C17" s="19" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="D17" s="11"/>
       <c r="F17" s="19" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="G17" s="19" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" s="33"/>
+      <c r="A18" s="38"/>
       <c r="B18" s="19" t="s">
+        <v>136</v>
+      </c>
+      <c r="C18" s="19" t="s">
         <v>141</v>
-      </c>
-      <c r="C18" s="19" t="s">
-        <v>146</v>
       </c>
       <c r="D18" s="11"/>
       <c r="F18" s="22" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="G18" s="19" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" s="33"/>
-      <c r="B19" s="42" t="s">
-        <v>142</v>
+      <c r="A19" s="38"/>
+      <c r="B19" s="32" t="s">
+        <v>137</v>
       </c>
       <c r="C19" s="19" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="D19" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="F19" s="41" t="s">
-        <v>148</v>
+      <c r="F19" s="33" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="33"/>
-      <c r="B20" s="42"/>
+      <c r="A20" s="38"/>
+      <c r="B20" s="32"/>
       <c r="C20" s="19" t="s">
         <v>9</v>
       </c>
       <c r="D20" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="F20" s="41"/>
+      <c r="F20" s="33"/>
     </row>
     <row r="21" spans="1:7">
-      <c r="A21" s="33"/>
-      <c r="B21" s="42"/>
+      <c r="A21" s="38"/>
+      <c r="B21" s="32"/>
       <c r="C21" s="19" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="D21" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="F21" s="41"/>
+      <c r="F21" s="33"/>
     </row>
     <row r="22" spans="1:7">
-      <c r="A22" s="33"/>
-      <c r="B22" s="42"/>
+      <c r="A22" s="38"/>
+      <c r="B22" s="32"/>
       <c r="C22" s="19" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D22" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="F22" s="41"/>
+        <v>33</v>
+      </c>
+      <c r="F22" s="33"/>
     </row>
     <row r="23" spans="1:7">
-      <c r="A23" s="33"/>
-      <c r="B23" s="42"/>
+      <c r="A23" s="38"/>
+      <c r="B23" s="32"/>
       <c r="C23" s="23" t="s">
         <v>25</v>
       </c>
       <c r="D23" s="11"/>
-      <c r="F23" s="41"/>
+      <c r="F23" s="33"/>
     </row>
     <row r="24" spans="1:7">
-      <c r="A24" s="33"/>
-      <c r="B24" s="42"/>
+      <c r="A24" s="38"/>
+      <c r="B24" s="32"/>
       <c r="C24" s="23" t="s">
         <v>26</v>
       </c>
       <c r="D24" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="F24" s="41"/>
+      <c r="F24" s="33"/>
     </row>
     <row r="25" spans="1:7">
-      <c r="A25" s="33"/>
-      <c r="B25" s="42" t="s">
+      <c r="A25" s="38"/>
+      <c r="B25" s="32" t="s">
         <v>7</v>
       </c>
       <c r="C25" s="19" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="D25" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="F25" s="42" t="s">
-        <v>164</v>
+        <v>33</v>
+      </c>
+      <c r="F25" s="32" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="26" spans="1:7">
-      <c r="A26" s="33"/>
-      <c r="B26" s="42"/>
+      <c r="A26" s="38"/>
+      <c r="B26" s="32"/>
       <c r="C26" s="19" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="D26" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="F26" s="42"/>
+      <c r="F26" s="32"/>
     </row>
     <row r="27" spans="1:7">
-      <c r="A27" s="33"/>
-      <c r="B27" s="42"/>
+      <c r="A27" s="38"/>
+      <c r="B27" s="32"/>
       <c r="C27" s="19" t="s">
         <v>10</v>
       </c>
       <c r="D27" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="F27" s="42"/>
+      <c r="F27" s="32"/>
     </row>
     <row r="28" spans="1:7">
-      <c r="A28" s="33"/>
-      <c r="B28" s="42"/>
+      <c r="A28" s="38"/>
+      <c r="B28" s="32"/>
       <c r="C28" s="19" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D28" s="12" t="s">
-        <v>185</v>
-      </c>
-      <c r="F28" s="42"/>
+        <v>180</v>
+      </c>
+      <c r="F28" s="32"/>
     </row>
     <row r="29" spans="1:7">
-      <c r="A29" s="33"/>
-      <c r="B29" s="42"/>
+      <c r="A29" s="38"/>
+      <c r="B29" s="32"/>
       <c r="C29" s="23" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="D29" s="12"/>
-      <c r="F29" s="42"/>
+      <c r="F29" s="32"/>
     </row>
     <row r="30" spans="1:7">
-      <c r="A30" s="33"/>
-      <c r="B30" s="42"/>
+      <c r="A30" s="38"/>
+      <c r="B30" s="32"/>
       <c r="C30" s="23" t="s">
         <v>26</v>
       </c>
       <c r="D30" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="F30" s="42"/>
+      <c r="F30" s="32"/>
     </row>
     <row r="31" spans="1:7">
-      <c r="A31" s="33"/>
+      <c r="A31" s="38"/>
       <c r="B31" s="29" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="C31" s="30" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="D31" s="30"/>
       <c r="E31" s="30"/>
       <c r="F31" s="31" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="G31" s="30"/>
     </row>
@@ -1981,7 +1990,7 @@
     </row>
     <row r="34" spans="1:8" s="7" customFormat="1">
       <c r="A34" s="13" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B34" s="8"/>
       <c r="C34" s="8"/>
@@ -1991,10 +2000,10 @@
       <c r="G34" s="8"/>
     </row>
     <row r="35" spans="1:8">
-      <c r="A35" s="43" t="s">
+      <c r="A35" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="B35" s="42" t="s">
+      <c r="B35" s="32" t="s">
         <v>12</v>
       </c>
       <c r="C35" s="19" t="s">
@@ -2004,72 +2013,72 @@
         <v>31</v>
       </c>
       <c r="E35" s="19" t="s">
-        <v>170</v>
-      </c>
-      <c r="F35" s="42" t="s">
-        <v>156</v>
-      </c>
-      <c r="H35" s="34" t="s">
-        <v>169</v>
+        <v>165</v>
+      </c>
+      <c r="F35" s="32" t="s">
+        <v>151</v>
+      </c>
+      <c r="H35" s="43" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="36" spans="1:8">
-      <c r="A36" s="43"/>
-      <c r="B36" s="42"/>
+      <c r="A36" s="37"/>
+      <c r="B36" s="32"/>
       <c r="C36" s="19" t="s">
         <v>30</v>
       </c>
       <c r="D36" s="12"/>
-      <c r="F36" s="42"/>
-      <c r="H36" s="34"/>
+      <c r="F36" s="32"/>
+      <c r="H36" s="43"/>
     </row>
     <row r="37" spans="1:8">
-      <c r="A37" s="43"/>
-      <c r="B37" s="42" t="s">
+      <c r="A37" s="37"/>
+      <c r="B37" s="32" t="s">
         <v>14</v>
       </c>
       <c r="C37" s="11" t="s">
         <v>15</v>
       </c>
       <c r="D37" s="16"/>
-      <c r="F37" s="42" t="s">
-        <v>157</v>
-      </c>
-      <c r="H37" s="41" t="s">
-        <v>159</v>
+      <c r="F37" s="32" t="s">
+        <v>152</v>
+      </c>
+      <c r="H37" s="33" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="38" spans="1:8">
-      <c r="A38" s="43"/>
-      <c r="B38" s="42"/>
+      <c r="A38" s="37"/>
+      <c r="B38" s="32"/>
       <c r="C38" s="5" t="s">
         <v>20</v>
       </c>
       <c r="D38" s="16"/>
-      <c r="F38" s="42"/>
-      <c r="H38" s="41"/>
+      <c r="F38" s="32"/>
+      <c r="H38" s="33"/>
     </row>
     <row r="39" spans="1:8">
-      <c r="A39" s="43"/>
-      <c r="B39" s="42" t="s">
+      <c r="A39" s="37"/>
+      <c r="B39" s="32" t="s">
         <v>13</v>
       </c>
       <c r="C39" s="11" t="s">
         <v>15</v>
       </c>
       <c r="D39" s="16"/>
-      <c r="F39" s="42" t="s">
-        <v>158</v>
+      <c r="F39" s="32" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="40" spans="1:8">
-      <c r="A40" s="43"/>
-      <c r="B40" s="42"/>
+      <c r="A40" s="37"/>
+      <c r="B40" s="32"/>
       <c r="C40" s="5" t="s">
         <v>21</v>
       </c>
       <c r="D40" s="16"/>
-      <c r="F40" s="42"/>
+      <c r="F40" s="32"/>
     </row>
     <row r="41" spans="1:8">
       <c r="A41" s="8"/>
@@ -2081,7 +2090,7 @@
     </row>
     <row r="43" spans="1:8" s="7" customFormat="1">
       <c r="A43" s="13" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B43" s="8"/>
       <c r="C43" s="8"/>
@@ -2094,85 +2103,85 @@
       <c r="A44" s="46" t="s">
         <v>4</v>
       </c>
-      <c r="B44" s="42" t="s">
+      <c r="B44" s="32" t="s">
         <v>12</v>
       </c>
       <c r="C44" s="19" t="s">
         <v>16</v>
       </c>
       <c r="D44" s="16"/>
-      <c r="F44" s="42" t="s">
-        <v>156</v>
-      </c>
-      <c r="H44" s="41" t="s">
-        <v>169</v>
+      <c r="F44" s="32" t="s">
+        <v>151</v>
+      </c>
+      <c r="H44" s="33" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="45" spans="1:8">
       <c r="A45" s="46"/>
-      <c r="B45" s="42"/>
+      <c r="B45" s="32"/>
       <c r="C45" s="19" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="D45" s="11" t="s">
-        <v>138</v>
-      </c>
-      <c r="F45" s="42"/>
-      <c r="H45" s="41"/>
+        <v>133</v>
+      </c>
+      <c r="F45" s="32"/>
+      <c r="H45" s="33"/>
     </row>
     <row r="46" spans="1:8">
       <c r="A46" s="46"/>
-      <c r="B46" s="42"/>
+      <c r="B46" s="32"/>
       <c r="C46" s="19" t="s">
         <v>23</v>
       </c>
       <c r="D46" s="16"/>
-      <c r="F46" s="42"/>
-      <c r="H46" s="41"/>
+      <c r="F46" s="32"/>
+      <c r="H46" s="33"/>
     </row>
     <row r="47" spans="1:8">
       <c r="A47" s="46"/>
-      <c r="B47" s="42" t="s">
+      <c r="B47" s="32" t="s">
         <v>14</v>
       </c>
       <c r="C47" s="11" t="s">
         <v>15</v>
       </c>
       <c r="D47" s="16"/>
-      <c r="F47" s="42" t="s">
-        <v>157</v>
+      <c r="F47" s="32" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="48" spans="1:8">
       <c r="A48" s="46"/>
-      <c r="B48" s="42"/>
+      <c r="B48" s="32"/>
       <c r="C48" s="5" t="s">
         <v>20</v>
       </c>
       <c r="D48" s="16"/>
-      <c r="F48" s="42"/>
+      <c r="F48" s="32"/>
     </row>
     <row r="49" spans="1:8">
       <c r="A49" s="46"/>
-      <c r="B49" s="42" t="s">
+      <c r="B49" s="32" t="s">
         <v>13</v>
       </c>
       <c r="C49" s="11" t="s">
         <v>15</v>
       </c>
       <c r="D49" s="16"/>
-      <c r="F49" s="42" t="s">
-        <v>158</v>
+      <c r="F49" s="32" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="50" spans="1:8">
       <c r="A50" s="46"/>
-      <c r="B50" s="42"/>
+      <c r="B50" s="32"/>
       <c r="C50" s="5" t="s">
         <v>21</v>
       </c>
       <c r="D50" s="16"/>
-      <c r="F50" s="42"/>
+      <c r="F50" s="32"/>
     </row>
     <row r="51" spans="1:8">
       <c r="D51" s="16"/>
@@ -2182,7 +2191,7 @@
     </row>
     <row r="53" spans="1:8" s="7" customFormat="1">
       <c r="A53" s="13" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B53" s="8"/>
       <c r="C53" s="8"/>
@@ -2192,10 +2201,10 @@
       <c r="G53" s="8"/>
     </row>
     <row r="54" spans="1:8">
-      <c r="A54" s="37" t="s">
+      <c r="A54" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="B54" s="36" t="s">
+      <c r="B54" s="35" t="s">
         <v>12</v>
       </c>
       <c r="C54" s="23" t="s">
@@ -2205,20 +2214,20 @@
         <v>17</v>
       </c>
       <c r="E54" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="F54" s="42" t="s">
-        <v>156</v>
+        <v>33</v>
+      </c>
+      <c r="F54" s="32" t="s">
+        <v>151</v>
       </c>
       <c r="H54" s="5" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="55" spans="1:8">
-      <c r="A55" s="37"/>
-      <c r="B55" s="35"/>
+      <c r="A55" s="36"/>
+      <c r="B55" s="34"/>
       <c r="C55" s="23" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="D55" s="23" t="s">
         <v>17</v>
@@ -2226,48 +2235,48 @@
       <c r="E55" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="F55" s="42"/>
+      <c r="F55" s="32"/>
       <c r="H55" s="6" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="56" spans="1:8">
-      <c r="A56" s="37"/>
-      <c r="B56" s="35"/>
+      <c r="A56" s="36"/>
+      <c r="B56" s="34"/>
       <c r="C56" s="23" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="D56" s="23" t="s">
         <v>17</v>
       </c>
       <c r="E56" s="12" t="s">
-        <v>154</v>
-      </c>
-      <c r="F56" s="42"/>
+        <v>149</v>
+      </c>
+      <c r="F56" s="32"/>
       <c r="H56" s="6" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="57" spans="1:8">
-      <c r="A57" s="37"/>
-      <c r="B57" s="35"/>
+      <c r="A57" s="36"/>
+      <c r="B57" s="34"/>
       <c r="C57" s="19" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D57" s="23" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="E57" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="F57" s="42"/>
+      <c r="F57" s="32"/>
       <c r="H57" s="6" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="58" spans="1:8">
-      <c r="A58" s="37"/>
-      <c r="B58" s="35"/>
+      <c r="A58" s="36"/>
+      <c r="B58" s="34"/>
       <c r="C58" s="23" t="s">
         <v>25</v>
       </c>
@@ -2275,14 +2284,14 @@
         <v>17</v>
       </c>
       <c r="E58" s="12"/>
-      <c r="F58" s="42"/>
+      <c r="F58" s="32"/>
       <c r="H58" s="6" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="59" spans="1:8">
-      <c r="A59" s="37"/>
-      <c r="B59" s="35"/>
+      <c r="A59" s="36"/>
+      <c r="B59" s="34"/>
       <c r="C59" s="23" t="s">
         <v>26</v>
       </c>
@@ -2292,59 +2301,59 @@
       <c r="E59" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="F59" s="42"/>
+      <c r="F59" s="32"/>
       <c r="H59" s="6" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="60" spans="1:8">
-      <c r="A60" s="37"/>
-      <c r="B60" s="36" t="s">
+      <c r="A60" s="36"/>
+      <c r="B60" s="35" t="s">
         <v>14</v>
       </c>
       <c r="C60" s="11" t="s">
         <v>15</v>
       </c>
       <c r="D60" s="12"/>
-      <c r="F60" s="42" t="s">
-        <v>157</v>
+      <c r="F60" s="32" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="61" spans="1:8">
-      <c r="A61" s="37"/>
-      <c r="B61" s="36"/>
+      <c r="A61" s="36"/>
+      <c r="B61" s="35"/>
       <c r="C61" s="5" t="s">
         <v>20</v>
       </c>
       <c r="D61" s="12"/>
-      <c r="F61" s="42"/>
+      <c r="F61" s="32"/>
     </row>
     <row r="62" spans="1:8">
-      <c r="A62" s="37"/>
-      <c r="B62" s="35" t="s">
+      <c r="A62" s="36"/>
+      <c r="B62" s="34" t="s">
         <v>13</v>
       </c>
       <c r="C62" s="12" t="s">
         <v>15</v>
       </c>
       <c r="D62" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="F62" s="42" t="s">
-        <v>158</v>
+        <v>38</v>
+      </c>
+      <c r="F62" s="32" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="63" spans="1:8">
-      <c r="A63" s="37"/>
-      <c r="B63" s="35"/>
+      <c r="A63" s="36"/>
+      <c r="B63" s="34"/>
       <c r="C63" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="F63" s="42"/>
+      <c r="F63" s="32"/>
     </row>
     <row r="66" spans="1:8" s="7" customFormat="1">
       <c r="A66" s="13" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B66" s="8"/>
       <c r="C66" s="8"/>
@@ -2357,68 +2366,68 @@
       <c r="A67" s="46" t="s">
         <v>6</v>
       </c>
-      <c r="B67" s="36" t="s">
+      <c r="B67" s="35" t="s">
         <v>12</v>
       </c>
       <c r="C67" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="F67" s="42" t="s">
-        <v>156</v>
+      <c r="F67" s="32" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="68" spans="1:8">
       <c r="A68" s="46"/>
-      <c r="B68" s="35"/>
+      <c r="B68" s="34"/>
       <c r="C68" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="F68" s="42"/>
+      <c r="F68" s="32"/>
     </row>
     <row r="69" spans="1:8">
       <c r="A69" s="46"/>
-      <c r="B69" s="35" t="s">
+      <c r="B69" s="34" t="s">
         <v>14</v>
       </c>
       <c r="C69" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="F69" s="42" t="s">
-        <v>157</v>
+      <c r="F69" s="32" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="70" spans="1:8">
       <c r="A70" s="46"/>
-      <c r="B70" s="35"/>
+      <c r="B70" s="34"/>
       <c r="C70" s="5" t="s">
         <v>20</v>
       </c>
       <c r="D70" s="12"/>
-      <c r="F70" s="42"/>
+      <c r="F70" s="32"/>
     </row>
     <row r="71" spans="1:8">
       <c r="A71" s="46"/>
-      <c r="B71" s="35" t="s">
+      <c r="B71" s="34" t="s">
         <v>13</v>
       </c>
       <c r="C71" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="F71" s="42" t="s">
-        <v>158</v>
+      <c r="F71" s="32" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="72" spans="1:8">
       <c r="A72" s="21"/>
-      <c r="B72" s="35"/>
+      <c r="B72" s="34"/>
       <c r="C72" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="F72" s="42"/>
+      <c r="F72" s="32"/>
     </row>
     <row r="75" spans="1:8" s="7" customFormat="1">
       <c r="A75" s="13" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B75" s="8"/>
       <c r="C75" s="8"/>
@@ -2428,96 +2437,94 @@
       <c r="G75" s="8"/>
     </row>
     <row r="76" spans="1:8">
-      <c r="A76" s="37" t="s">
+      <c r="A76" s="36" t="s">
         <v>32</v>
       </c>
-      <c r="B76" s="36" t="s">
+      <c r="B76" s="35" t="s">
         <v>12</v>
       </c>
       <c r="C76" s="23" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D76" s="24" t="s">
-        <v>33</v>
-      </c>
-      <c r="F76" s="42" t="s">
-        <v>156</v>
-      </c>
-      <c r="H76" s="41" t="s">
+        <v>186</v>
+      </c>
+      <c r="F76" s="32" t="s">
+        <v>151</v>
+      </c>
+      <c r="H76" s="33" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
+      <c r="A77" s="36"/>
+      <c r="B77" s="35"/>
+      <c r="C77" s="23" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="77" spans="1:8">
-      <c r="A77" s="37"/>
-      <c r="B77" s="36"/>
-      <c r="C77" s="23" t="s">
-        <v>38</v>
-      </c>
       <c r="D77" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="F77" s="42"/>
-      <c r="H77" s="41"/>
+        <v>182</v>
+      </c>
+      <c r="F77" s="32"/>
+      <c r="H77" s="33"/>
     </row>
     <row r="78" spans="1:8">
-      <c r="A78" s="37"/>
-      <c r="B78" s="35" t="s">
+      <c r="A78" s="36"/>
+      <c r="B78" s="34" t="s">
         <v>14</v>
       </c>
       <c r="C78" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="F78" s="42" t="s">
-        <v>157</v>
+      <c r="F78" s="32" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="79" spans="1:8">
-      <c r="A79" s="37"/>
-      <c r="B79" s="35"/>
+      <c r="A79" s="36"/>
+      <c r="B79" s="34"/>
       <c r="C79" s="5" t="s">
         <v>20</v>
       </c>
       <c r="D79" s="12"/>
-      <c r="F79" s="42"/>
+      <c r="F79" s="32"/>
     </row>
     <row r="80" spans="1:8">
-      <c r="A80" s="37"/>
-      <c r="B80" s="35" t="s">
+      <c r="A80" s="36"/>
+      <c r="B80" s="34" t="s">
         <v>13</v>
       </c>
       <c r="C80" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="F80" s="42" t="s">
-        <v>158</v>
+      <c r="F80" s="32" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="81" spans="1:6">
-      <c r="A81" s="37"/>
-      <c r="B81" s="35"/>
+      <c r="A81" s="36"/>
+      <c r="B81" s="34"/>
       <c r="C81" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="F81" s="42"/>
+      <c r="F81" s="32"/>
     </row>
     <row r="84" spans="1:6">
       <c r="A84" s="18" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="B84" s="18"/>
       <c r="C84" s="18" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="D84" s="18"/>
       <c r="E84" s="18"/>
       <c r="F84" s="18" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="50">
-    <mergeCell ref="F76:F77"/>
-    <mergeCell ref="F67:F68"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="A3:E3"/>
     <mergeCell ref="A67:A71"/>
@@ -2532,16 +2539,9 @@
     <mergeCell ref="B47:B48"/>
     <mergeCell ref="A44:A50"/>
     <mergeCell ref="A54:A63"/>
-    <mergeCell ref="B37:B38"/>
-    <mergeCell ref="B39:B40"/>
     <mergeCell ref="A2:E2"/>
     <mergeCell ref="H4:H5"/>
     <mergeCell ref="H76:H77"/>
-    <mergeCell ref="B78:B79"/>
-    <mergeCell ref="B19:B24"/>
-    <mergeCell ref="B25:B30"/>
-    <mergeCell ref="B35:B36"/>
-    <mergeCell ref="A35:A40"/>
     <mergeCell ref="H37:H38"/>
     <mergeCell ref="H44:H46"/>
     <mergeCell ref="F54:F59"/>
@@ -2551,21 +2551,30 @@
     <mergeCell ref="F4:G4"/>
     <mergeCell ref="F49:F50"/>
     <mergeCell ref="A7:A13"/>
+    <mergeCell ref="H35:H36"/>
+    <mergeCell ref="F39:F40"/>
+    <mergeCell ref="F76:F77"/>
+    <mergeCell ref="F67:F68"/>
+    <mergeCell ref="B19:B24"/>
+    <mergeCell ref="B25:B30"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="A35:A40"/>
     <mergeCell ref="A17:A31"/>
-    <mergeCell ref="H35:H36"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="B39:B40"/>
     <mergeCell ref="B80:B81"/>
     <mergeCell ref="B76:B77"/>
     <mergeCell ref="A76:A81"/>
     <mergeCell ref="F47:F48"/>
     <mergeCell ref="F44:F46"/>
-    <mergeCell ref="F39:F40"/>
+    <mergeCell ref="F78:F79"/>
+    <mergeCell ref="F80:F81"/>
+    <mergeCell ref="B78:B79"/>
     <mergeCell ref="F37:F38"/>
     <mergeCell ref="F35:F36"/>
     <mergeCell ref="F25:F30"/>
     <mergeCell ref="F19:F24"/>
     <mergeCell ref="F71:F72"/>
-    <mergeCell ref="F78:F79"/>
-    <mergeCell ref="F80:F81"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2575,10 +2584,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B105"/>
+  <dimension ref="A1:B106"/>
   <sheetViews>
-    <sheetView topLeftCell="A76" workbookViewId="0">
-      <selection activeCell="A105" sqref="A105"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="A39" sqref="A39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -2589,13 +2598,13 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="47" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B1" s="47"/>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="48" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B2" s="49"/>
     </row>
@@ -2605,392 +2614,402 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="1" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" t="s">
-        <v>109</v>
+        <v>181</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="B31" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B32" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" t="s">
-        <v>54</v>
+        <v>187</v>
       </c>
       <c r="B44" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="49" spans="1:1">
       <c r="A49" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
     </row>
     <row r="50" spans="1:1">
       <c r="A50" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="52" spans="1:1">
       <c r="A52" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="53" spans="1:1">
       <c r="A53" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="56" spans="1:1">
       <c r="A56" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="57" spans="1:1">
       <c r="A57" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="59" spans="1:1">
       <c r="A59" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="60" spans="1:1">
       <c r="A60" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="62" spans="1:1">
       <c r="A62" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="63" spans="1:1">
       <c r="A63" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="65" spans="1:1">
       <c r="A65" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="66" spans="1:1">
       <c r="A66" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="69" spans="1:1">
       <c r="A69" s="1" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="70" spans="1:1">
       <c r="A70" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="72" spans="1:1">
       <c r="A72" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="73" spans="1:1">
       <c r="A73" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="74" spans="1:1">
       <c r="A74" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="75" spans="1:1">
       <c r="A75" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="77" spans="1:1">
       <c r="A77" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="78" spans="1:1">
       <c r="A78" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="80" spans="1:1">
       <c r="A80" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="81" spans="1:2">
       <c r="A81" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="85" spans="1:2">
       <c r="A85" s="1" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="86" spans="1:2">
       <c r="A86" t="s">
-        <v>108</v>
+        <v>183</v>
       </c>
       <c r="B86" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="87" spans="1:2">
       <c r="A87" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="B87" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2" s="2" customFormat="1">
-      <c r="A90" s="2" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2">
-      <c r="A91" t="s">
-        <v>116</v>
-      </c>
-      <c r="B91" t="s">
-        <v>87</v>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2">
+      <c r="A88" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2">
+      <c r="A89" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" s="2" customFormat="1">
+      <c r="A91" s="2" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="92" spans="1:2">
       <c r="A92" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="B92" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
     </row>
     <row r="93" spans="1:2">
       <c r="A93" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B93" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
     </row>
     <row r="94" spans="1:2">
       <c r="A94" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="B94" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2">
-      <c r="A96" t="s">
-        <v>114</v>
-      </c>
-      <c r="B96" t="s">
-        <v>91</v>
+        <v>86</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2">
+      <c r="A95" t="s">
+        <v>112</v>
+      </c>
+      <c r="B95" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="97" spans="1:2">
       <c r="A97" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B97" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="98" spans="1:2">
       <c r="A98" t="s">
-        <v>84</v>
+        <v>104</v>
       </c>
       <c r="B98" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="99" spans="1:2">
       <c r="A99" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B99" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2" s="2" customFormat="1">
-      <c r="A102" s="2" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="103" spans="1:2">
-      <c r="A103" t="s">
-        <v>177</v>
-      </c>
-      <c r="B103" t="s">
-        <v>180</v>
+        <v>87</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2">
+      <c r="A100" t="s">
+        <v>82</v>
+      </c>
+      <c r="B100" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" s="2" customFormat="1">
+      <c r="A103" s="2" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="104" spans="1:2">
       <c r="A104" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="B104" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
     </row>
     <row r="105" spans="1:2">
       <c r="A105" t="s">
-        <v>182</v>
+        <v>174</v>
+      </c>
+      <c r="B105" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2">
+      <c r="A106" t="s">
+        <v>177</v>
       </c>
     </row>
   </sheetData>

--- a/UserManual/CMD_Manual.xlsx
+++ b/UserManual/CMD_Manual.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="196">
   <si>
     <t>type=info</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -508,9 +508,6 @@
     <t>数据包过滤：</t>
   </si>
   <si>
-    <t>curl -d "type=trans&amp;key=status" http://10.10.124.229:1234</t>
-  </si>
-  <si>
     <t>curl -d "type=trans&amp;key=status" http://10.10.124.228:1234</t>
   </si>
   <si>
@@ -756,8 +753,16 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>src=/home/pcap/123.pcap</t>
+    <t>value=pcap</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>value=log</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>value=p5p2</t>
     </r>
     <r>
       <rPr>
@@ -775,25 +780,193 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>/home/pcap/123.pcap</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>value=pcap</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>value=log</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>value=p5p2</t>
+      <t>em2</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"nic-traffic": [{"packet-errors": 0, "mac": "f4:e9:d4:8c:e2:a2", "name": "p5p2", "time": 1482244304.050147, "packet-counts": 107632104293, "ip": "10.10.88.173", "total-bytes": 72437640, "packet-drops": 334, "controller-ip": ""}, {"packet-errors": 0, "mac": "14:18:77:59:51:22", "name": "em2", "time": 1482244304.050158, "packet-counts": 0, "ip": "", "total-bytes": 0, "packet-drops": 0, "controller-ip": ""}]}</t>
+  </si>
+  <si>
+    <t>{"file-infos": [{"path": "/backup", "size": 24, "ctime": 1482235429.2461784, "name": "173_20161220_200349_em2.pcap", "mtime": 1482235429.2461784}, {"path": "/backup", "size": 15314, "ctime": 1482235456.2092028, "name": "173_20161220_200349_p5p2.pcap", "mtime": 1482235456.2092028}]}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">curl -d "type=info&amp;key=device-cpu" http://10.10.88.173:1234  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">curl -d "type=info&amp;key=ntp-status" http://10.10.88.173:1234 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">curl -d "type=info&amp;key=nic-traffic" http://10.10.88.173:1234 </t>
+  </si>
+  <si>
+    <t>信息查询命令(返回默认信息):</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>文件删除测试:</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>filter=20161212#md5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dst=10.10.88.173:/home/test</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"pid": "30593"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"status": "running"} 或者 {"status": "end"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"status": "success"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>running表示正在运行；end表示程序运行结束</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>非法的命令请求</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"error-info": "pcap-statu4s error type!"}</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> type=pcap&amp;key=statu4s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"nic-traffic": [{"packet-errors": 0, "mac": "f4:e9:d4:8c:e2:a2", "name": "p5p2", "time": 1482241355.491839, "packet-counts": 107631257404, "ip": "10.10.88.173", "total-bytes": 72430680, "packet-drops": 236, "controller-ip": ""}, {"packet-errors": 0, "mac": "14:18:77:59:51:22", "name": "em2", "time": 1482241355.491851, "packet-counts": 0, "ip": "", "total-bytes": 0, "packet-drops": 0, "controller-ip": ""}]}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"file-remove": true}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"ntp-status": "off"} 或 {"ntp-status": "on"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>同步服务开启则返回on</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>返回执行程序对应的PID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>定时启动3600秒后自动停止</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">curl -d "type=info&amp;key=syslog" http://10.10.88.173:1234 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"syslog": {"ip": "localhost", "port": 514}}</t>
+  </si>
+  <si>
+    <t>{}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>key=syslog</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>返回默认syslog日志信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>value=10.10.88.173#514</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>curl -d "type=info&amp;key=syslog" http://10.10.88.172:1234</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>syslog设置流程（1.发送分析命令；2.传输分析结果）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>curl -d "type=info&amp;key=syslog" http://10.10.88.173:1234</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看172 syslog当前设置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看173 syslog当前设置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>curl -d "type=req&amp;key=syslog&amp;value=10.10.88.171#514" http://10.10.88.172:1234</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"syslog": true} 或者 {"syslog": false}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>type=req</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>filter=20161212#md5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>curl -d "type=pcap&amp;key=start" http://10.10.88.173:1234</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>curl -d "type=filter&amp;key=start&amp;value=/backup/173_20161228_195341_p5p2.pcap&amp;exp=\"ip 10.10.88.173\"" http://10.10.88.173:1234</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>curl -d "type=filter&amp;key=start&amp;value=/backup/173_20161228_195341_p5p2.pcap&amp;exp=\"dst 10.10.88.173\"" http://10.10.88.173:1234</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>exp="host 10.10.88.173"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>p</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>curl -d "type=filter&amp;key=start&amp;value=/backup/20161218_164942_em2.pcap&amp;exp=\"dst port 22\"" http://10.10.88.173:1234</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>统一过滤出所有的200 error 错误的数据包，路径存放在/home/error200pcap/下</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>src=/home/pcap</t>
     </r>
     <r>
       <rPr>
@@ -811,164 +984,52 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <family val="2"/>
+        <family val="3"/>
+        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>em2</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"nic-traffic": [{"packet-errors": 0, "mac": "f4:e9:d4:8c:e2:a2", "name": "p5p2", "time": 1482244304.050147, "packet-counts": 107632104293, "ip": "10.10.88.173", "total-bytes": 72437640, "packet-drops": 334, "controller-ip": ""}, {"packet-errors": 0, "mac": "14:18:77:59:51:22", "name": "em2", "time": 1482244304.050158, "packet-counts": 0, "ip": "", "total-bytes": 0, "packet-drops": 0, "controller-ip": ""}]}</t>
-  </si>
-  <si>
-    <t>{"file-infos": [{"path": "/backup", "size": 24, "ctime": 1482235429.2461784, "name": "173_20161220_200349_em2.pcap", "mtime": 1482235429.2461784}, {"path": "/backup", "size": 15314, "ctime": 1482235456.2092028, "name": "173_20161220_200349_p5p2.pcap", "mtime": 1482235456.2092028}]}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">curl -d "type=info&amp;key=device-cpu" http://10.10.88.173:1234  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">curl -d "type=info&amp;key=ntp-status" http://10.10.88.173:1234 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">curl -d "type=info&amp;key=nic-traffic" http://10.10.88.173:1234 </t>
-  </si>
-  <si>
-    <t>信息查询命令(返回默认信息):</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>文件删除测试:</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>filter=20161212#md5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dst=10.10.88.173:/home/test</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"pid": "30593"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"status": "running"} 或者 {"status": "end"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"status": "success"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>running表示正在运行；end表示程序运行结束</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>非法的命令请求</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"error-info": "pcap-statu4s error type!"}</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> type=pcap&amp;key=statu4s</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"nic-traffic": [{"packet-errors": 0, "mac": "f4:e9:d4:8c:e2:a2", "name": "p5p2", "time": 1482241355.491839, "packet-counts": 107631257404, "ip": "10.10.88.173", "total-bytes": 72430680, "packet-drops": 236, "controller-ip": ""}, {"packet-errors": 0, "mac": "14:18:77:59:51:22", "name": "em2", "time": 1482241355.491851, "packet-counts": 0, "ip": "", "total-bytes": 0, "packet-drops": 0, "controller-ip": ""}]}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"file-remove": true}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"ntp-status": "off"} 或 {"ntp-status": "on"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>同步服务开启则返回on</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>返回执行程序对应的PID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>定时启动3600秒后自动停止</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">curl -d "type=info&amp;key=syslog" http://10.10.88.173:1234 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"syslog": {"ip": "localhost", "port": 514}}</t>
-  </si>
-  <si>
-    <t>{}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>key=syslog</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>返回默认syslog日志信息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>value=10.10.88.173#514</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>curl -d "type=info&amp;key=syslog" http://10.10.88.172:1234</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>syslog设置流程（1.发送分析命令；2.传输分析结果）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>curl -d "type=info&amp;key=syslog" http://10.10.88.173:1234</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>查看172 syslog当前设置</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>查看173 syslog当前设置</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>curl -d "type=req&amp;key=syslog&amp;value=10.10.88.171#514" http://10.10.88.172:1234</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"syslog": true} 或者 {"syslog": false}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>type=req</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>filter=20161212#md5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>curl -d "type=pcap&amp;key=start" http://10.10.88.173:1234</t>
+      <t>/home/pcap/123.pcap</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>src=/home/pcap/123.pcap</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>#</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/home/pcap/123.pcap</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>src=/home/error200pcap</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>value=log</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看所有的200 error 错误的数据包</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -976,23 +1037,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>curl -d "type=filter&amp;key=start&amp;value=/backup/20161218_164942_em2.pcap&amp;exp=\"dst port 22\"" http://10.10.88.173:1234</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>curl -d "type=filter&amp;key=start&amp;value=/backup/173_20161228_195341_p5p2.pcap&amp;exp=\"ip 10.10.88.173\"" http://10.10.88.173:1234</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>curl -d "type=filter&amp;key=start&amp;value=/backup/173_20161228_195341_p5p2.pcap&amp;exp=\"dst 10.10.88.173\"" http://10.10.88.173:1234</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>exp="host 10.10.88.173"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>p</t>
+    <t>exp=“200error”</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>过滤出200 error错误的所有数据包</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>curl -d "type=trans&amp;key=status" http://10.10.124.229:1234</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>curl -d "type=filter&amp;key=start&amp;value=/root/agent/20160924.pcap&amp;exp=\"200error\"" http://10.10.88.173:1234</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1142,7 +1199,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
@@ -1234,42 +1291,51 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1279,6 +1345,11 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1559,10 +1630,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H84"/>
+  <dimension ref="A1:H85"/>
   <sheetViews>
-    <sheetView topLeftCell="B22" workbookViewId="0">
-      <selection activeCell="D77" sqref="D77"/>
+    <sheetView topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="D78" sqref="D78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1570,8 +1641,8 @@
     <col min="1" max="1" width="18.875" style="19" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.625" style="19" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="61.5" style="19" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="38.5" style="19" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.375" style="19" customWidth="1"/>
+    <col min="4" max="4" width="28.125" style="19" customWidth="1"/>
+    <col min="5" max="5" width="35.25" style="19" customWidth="1"/>
     <col min="6" max="6" width="38.5" style="19" customWidth="1"/>
     <col min="7" max="7" width="16.375" style="19" customWidth="1"/>
     <col min="8" max="8" width="42" style="3" bestFit="1" customWidth="1"/>
@@ -1579,34 +1650,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="44" t="s">
-        <v>95</v>
-      </c>
-      <c r="B1" s="44"/>
-      <c r="C1" s="44"/>
-      <c r="D1" s="44"/>
-      <c r="E1" s="44"/>
+      <c r="A1" s="35" t="s">
+        <v>94</v>
+      </c>
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
     </row>
     <row r="2" spans="1:8" ht="51" customHeight="1">
-      <c r="A2" s="39" t="s">
+      <c r="A2" s="42" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="40"/>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40"/>
-      <c r="E2" s="40"/>
+      <c r="B2" s="43"/>
+      <c r="C2" s="43"/>
+      <c r="D2" s="43"/>
+      <c r="E2" s="43"/>
       <c r="F2" s="25"/>
       <c r="G2" s="25"/>
       <c r="H2" s="9"/>
     </row>
     <row r="3" spans="1:8" ht="45" customHeight="1">
-      <c r="A3" s="45" t="s">
+      <c r="A3" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="B3" s="45"/>
-      <c r="C3" s="45"/>
-      <c r="D3" s="45"/>
-      <c r="E3" s="45"/>
+      <c r="B3" s="36"/>
+      <c r="C3" s="36"/>
+      <c r="D3" s="36"/>
+      <c r="E3" s="36"/>
       <c r="F3" s="25"/>
       <c r="G3" s="25"/>
       <c r="H3" s="9"/>
@@ -1617,12 +1688,12 @@
       <c r="C4" s="10"/>
       <c r="D4" s="10"/>
       <c r="E4" s="10"/>
-      <c r="F4" s="41" t="s">
+      <c r="F4" s="44" t="s">
+        <v>117</v>
+      </c>
+      <c r="G4" s="44"/>
+      <c r="H4" s="44" t="s">
         <v>118</v>
-      </c>
-      <c r="G4" s="41"/>
-      <c r="H4" s="41" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="5" spans="1:8" s="4" customFormat="1">
@@ -1632,12 +1703,12 @@
       <c r="D5" s="10"/>
       <c r="E5" s="10"/>
       <c r="F5" s="20" t="s">
+        <v>129</v>
+      </c>
+      <c r="G5" s="20" t="s">
         <v>130</v>
       </c>
-      <c r="G5" s="20" t="s">
-        <v>131</v>
-      </c>
-      <c r="H5" s="41"/>
+      <c r="H5" s="44"/>
     </row>
     <row r="6" spans="1:8" s="7" customFormat="1">
       <c r="A6" s="13" t="s">
@@ -1651,7 +1722,7 @@
       <c r="G6" s="8"/>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="42" t="s">
+      <c r="A7" s="46" t="s">
         <v>0</v>
       </c>
       <c r="B7" s="19" t="s">
@@ -1659,84 +1730,84 @@
       </c>
       <c r="D7" s="11"/>
       <c r="F7" s="19" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G7" s="19" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="42"/>
+      <c r="A8" s="46"/>
       <c r="B8" s="19" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C8" s="19" t="s">
         <v>19</v>
       </c>
       <c r="D8" s="11"/>
       <c r="F8" s="19" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G8" s="19" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="42"/>
+      <c r="A9" s="46"/>
       <c r="B9" s="19" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D9" s="11"/>
       <c r="F9" s="19" t="s">
+        <v>122</v>
+      </c>
+      <c r="G9" s="19" t="s">
+        <v>128</v>
+      </c>
+      <c r="H9" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="G9" s="19" t="s">
-        <v>129</v>
-      </c>
-      <c r="H9" s="3" t="s">
-        <v>124</v>
-      </c>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" s="42"/>
+      <c r="A10" s="46"/>
       <c r="B10" s="19" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C10" s="19" t="s">
         <v>18</v>
       </c>
       <c r="D10" s="11"/>
       <c r="F10" s="19" t="s">
+        <v>127</v>
+      </c>
+      <c r="G10" s="19" t="s">
         <v>128</v>
       </c>
-      <c r="G10" s="19" t="s">
-        <v>129</v>
-      </c>
     </row>
     <row r="11" spans="1:8">
-      <c r="A11" s="42"/>
+      <c r="A11" s="46"/>
       <c r="B11" s="19" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C11" s="19" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D11" s="11"/>
       <c r="F11" s="19" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="12" spans="1:8">
-      <c r="A12" s="42"/>
+      <c r="A12" s="46"/>
       <c r="B12" s="19" t="s">
         <v>2</v>
       </c>
@@ -1745,27 +1816,27 @@
       </c>
       <c r="D12" s="11"/>
       <c r="F12" s="19" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="G12" s="19" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="13" spans="1:8">
-      <c r="A13" s="42"/>
+      <c r="A13" s="46"/>
       <c r="B13" s="27" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C13" s="27" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D13" s="28"/>
       <c r="E13" s="27"/>
       <c r="F13" s="27" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="G13" s="27" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -1782,7 +1853,7 @@
     </row>
     <row r="16" spans="1:8" s="7" customFormat="1">
       <c r="A16" s="13" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B16" s="8"/>
       <c r="C16" s="8"/>
@@ -1792,187 +1863,189 @@
       <c r="G16" s="8"/>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="38" t="s">
-        <v>179</v>
+      <c r="A17" s="49" t="s">
+        <v>177</v>
       </c>
       <c r="B17" s="19" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C17" s="19" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D17" s="11"/>
       <c r="F17" s="19" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G17" s="19" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" s="38"/>
+      <c r="A18" s="49"/>
       <c r="B18" s="19" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C18" s="19" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D18" s="11"/>
       <c r="F18" s="22" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="G18" s="19" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" s="38"/>
-      <c r="B19" s="32" t="s">
+      <c r="A19" s="49"/>
+      <c r="B19" s="40" t="s">
+        <v>136</v>
+      </c>
+      <c r="C19" s="19" t="s">
         <v>137</v>
-      </c>
-      <c r="C19" s="19" t="s">
-        <v>139</v>
       </c>
       <c r="D19" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="F19" s="33" t="s">
-        <v>143</v>
+      <c r="F19" s="45" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="38"/>
-      <c r="B20" s="32"/>
+      <c r="A20" s="49"/>
+      <c r="B20" s="40"/>
       <c r="C20" s="19" t="s">
         <v>9</v>
       </c>
       <c r="D20" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="F20" s="33"/>
+      <c r="F20" s="45"/>
     </row>
     <row r="21" spans="1:7">
-      <c r="A21" s="38"/>
-      <c r="B21" s="32"/>
+      <c r="A21" s="49"/>
+      <c r="B21" s="40"/>
       <c r="C21" s="19" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D21" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="F21" s="33"/>
+      <c r="F21" s="45"/>
     </row>
     <row r="22" spans="1:7">
-      <c r="A22" s="38"/>
-      <c r="B22" s="32"/>
+      <c r="A22" s="49"/>
+      <c r="B22" s="40"/>
       <c r="C22" s="19" t="s">
         <v>35</v>
       </c>
       <c r="D22" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="F22" s="33"/>
+      <c r="F22" s="45"/>
     </row>
     <row r="23" spans="1:7">
-      <c r="A23" s="38"/>
-      <c r="B23" s="32"/>
-      <c r="C23" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="D23" s="11"/>
-      <c r="F23" s="33"/>
+      <c r="A23" s="49"/>
+      <c r="B23" s="40"/>
+      <c r="C23" s="18" t="s">
+        <v>188</v>
+      </c>
+      <c r="E23" s="18" t="s">
+        <v>190</v>
+      </c>
+      <c r="F23" s="45"/>
     </row>
     <row r="24" spans="1:7">
-      <c r="A24" s="38"/>
-      <c r="B24" s="32"/>
+      <c r="A24" s="49"/>
+      <c r="B24" s="40"/>
       <c r="C24" s="23" t="s">
         <v>26</v>
       </c>
       <c r="D24" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="F24" s="33"/>
+      <c r="F24" s="45"/>
     </row>
     <row r="25" spans="1:7">
-      <c r="A25" s="38"/>
-      <c r="B25" s="32" t="s">
+      <c r="A25" s="49"/>
+      <c r="B25" s="40" t="s">
         <v>7</v>
       </c>
       <c r="C25" s="19" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D25" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="F25" s="32" t="s">
-        <v>159</v>
+      <c r="F25" s="40" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="26" spans="1:7">
-      <c r="A26" s="38"/>
-      <c r="B26" s="32"/>
+      <c r="A26" s="49"/>
+      <c r="B26" s="40"/>
       <c r="C26" s="19" t="s">
-        <v>140</v>
+        <v>189</v>
       </c>
       <c r="D26" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="F26" s="32"/>
+      <c r="F26" s="40"/>
     </row>
     <row r="27" spans="1:7">
-      <c r="A27" s="38"/>
-      <c r="B27" s="32"/>
+      <c r="A27" s="49"/>
+      <c r="B27" s="40"/>
       <c r="C27" s="19" t="s">
         <v>10</v>
       </c>
       <c r="D27" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="F27" s="32"/>
+      <c r="F27" s="40"/>
     </row>
     <row r="28" spans="1:7">
-      <c r="A28" s="38"/>
-      <c r="B28" s="32"/>
+      <c r="A28" s="49"/>
+      <c r="B28" s="40"/>
       <c r="C28" s="19" t="s">
         <v>35</v>
       </c>
       <c r="D28" s="12" t="s">
-        <v>180</v>
-      </c>
-      <c r="F28" s="32"/>
+        <v>178</v>
+      </c>
+      <c r="F28" s="40"/>
     </row>
     <row r="29" spans="1:7">
-      <c r="A29" s="38"/>
-      <c r="B29" s="32"/>
+      <c r="A29" s="49"/>
+      <c r="B29" s="40"/>
       <c r="C29" s="23" t="s">
-        <v>138</v>
+        <v>187</v>
       </c>
       <c r="D29" s="12"/>
-      <c r="F29" s="32"/>
+      <c r="F29" s="40"/>
     </row>
     <row r="30" spans="1:7">
-      <c r="A30" s="38"/>
-      <c r="B30" s="32"/>
+      <c r="A30" s="49"/>
+      <c r="B30" s="40"/>
       <c r="C30" s="23" t="s">
-        <v>26</v>
+        <v>186</v>
       </c>
       <c r="D30" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="F30" s="32"/>
+      <c r="F30" s="40"/>
     </row>
     <row r="31" spans="1:7">
-      <c r="A31" s="38"/>
+      <c r="A31" s="49"/>
       <c r="B31" s="29" t="s">
+        <v>167</v>
+      </c>
+      <c r="C31" s="30" t="s">
         <v>169</v>
-      </c>
-      <c r="C31" s="30" t="s">
-        <v>171</v>
       </c>
       <c r="D31" s="30"/>
       <c r="E31" s="30"/>
       <c r="F31" s="31" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="G31" s="30"/>
     </row>
@@ -1990,7 +2063,7 @@
     </row>
     <row r="34" spans="1:8" s="7" customFormat="1">
       <c r="A34" s="13" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B34" s="8"/>
       <c r="C34" s="8"/>
@@ -2000,10 +2073,10 @@
       <c r="G34" s="8"/>
     </row>
     <row r="35" spans="1:8">
-      <c r="A35" s="37" t="s">
+      <c r="A35" s="48" t="s">
         <v>3</v>
       </c>
-      <c r="B35" s="32" t="s">
+      <c r="B35" s="40" t="s">
         <v>12</v>
       </c>
       <c r="C35" s="19" t="s">
@@ -2013,72 +2086,72 @@
         <v>31</v>
       </c>
       <c r="E35" s="19" t="s">
-        <v>165</v>
-      </c>
-      <c r="F35" s="32" t="s">
-        <v>151</v>
-      </c>
-      <c r="H35" s="43" t="s">
-        <v>164</v>
+        <v>163</v>
+      </c>
+      <c r="F35" s="40" t="s">
+        <v>149</v>
+      </c>
+      <c r="H35" s="47" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="36" spans="1:8">
-      <c r="A36" s="37"/>
-      <c r="B36" s="32"/>
+      <c r="A36" s="48"/>
+      <c r="B36" s="40"/>
       <c r="C36" s="19" t="s">
         <v>30</v>
       </c>
       <c r="D36" s="12"/>
-      <c r="F36" s="32"/>
-      <c r="H36" s="43"/>
+      <c r="F36" s="40"/>
+      <c r="H36" s="47"/>
     </row>
     <row r="37" spans="1:8">
-      <c r="A37" s="37"/>
-      <c r="B37" s="32" t="s">
+      <c r="A37" s="48"/>
+      <c r="B37" s="40" t="s">
         <v>14</v>
       </c>
       <c r="C37" s="11" t="s">
         <v>15</v>
       </c>
       <c r="D37" s="16"/>
-      <c r="F37" s="32" t="s">
+      <c r="F37" s="40" t="s">
+        <v>150</v>
+      </c>
+      <c r="H37" s="45" t="s">
         <v>152</v>
       </c>
-      <c r="H37" s="33" t="s">
-        <v>154</v>
-      </c>
     </row>
     <row r="38" spans="1:8">
-      <c r="A38" s="37"/>
-      <c r="B38" s="32"/>
+      <c r="A38" s="48"/>
+      <c r="B38" s="40"/>
       <c r="C38" s="5" t="s">
         <v>20</v>
       </c>
       <c r="D38" s="16"/>
-      <c r="F38" s="32"/>
-      <c r="H38" s="33"/>
+      <c r="F38" s="40"/>
+      <c r="H38" s="45"/>
     </row>
     <row r="39" spans="1:8">
-      <c r="A39" s="37"/>
-      <c r="B39" s="32" t="s">
+      <c r="A39" s="48"/>
+      <c r="B39" s="40" t="s">
         <v>13</v>
       </c>
       <c r="C39" s="11" t="s">
         <v>15</v>
       </c>
       <c r="D39" s="16"/>
-      <c r="F39" s="32" t="s">
-        <v>153</v>
+      <c r="F39" s="40" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="40" spans="1:8">
-      <c r="A40" s="37"/>
-      <c r="B40" s="32"/>
+      <c r="A40" s="48"/>
+      <c r="B40" s="40"/>
       <c r="C40" s="5" t="s">
         <v>21</v>
       </c>
       <c r="D40" s="16"/>
-      <c r="F40" s="32"/>
+      <c r="F40" s="40"/>
     </row>
     <row r="41" spans="1:8">
       <c r="A41" s="8"/>
@@ -2090,7 +2163,7 @@
     </row>
     <row r="43" spans="1:8" s="7" customFormat="1">
       <c r="A43" s="13" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B43" s="8"/>
       <c r="C43" s="8"/>
@@ -2100,88 +2173,88 @@
       <c r="G43" s="8"/>
     </row>
     <row r="44" spans="1:8">
-      <c r="A44" s="46" t="s">
+      <c r="A44" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="B44" s="32" t="s">
+      <c r="B44" s="40" t="s">
         <v>12</v>
       </c>
       <c r="C44" s="19" t="s">
         <v>16</v>
       </c>
       <c r="D44" s="16"/>
-      <c r="F44" s="32" t="s">
-        <v>151</v>
-      </c>
-      <c r="H44" s="33" t="s">
-        <v>164</v>
+      <c r="F44" s="40" t="s">
+        <v>149</v>
+      </c>
+      <c r="H44" s="45" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="45" spans="1:8">
-      <c r="A45" s="46"/>
-      <c r="B45" s="32"/>
+      <c r="A45" s="37"/>
+      <c r="B45" s="40"/>
       <c r="C45" s="19" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D45" s="11" t="s">
-        <v>133</v>
-      </c>
-      <c r="F45" s="32"/>
-      <c r="H45" s="33"/>
+        <v>132</v>
+      </c>
+      <c r="F45" s="40"/>
+      <c r="H45" s="45"/>
     </row>
     <row r="46" spans="1:8">
-      <c r="A46" s="46"/>
-      <c r="B46" s="32"/>
+      <c r="A46" s="37"/>
+      <c r="B46" s="40"/>
       <c r="C46" s="19" t="s">
         <v>23</v>
       </c>
       <c r="D46" s="16"/>
-      <c r="F46" s="32"/>
-      <c r="H46" s="33"/>
+      <c r="F46" s="40"/>
+      <c r="H46" s="45"/>
     </row>
     <row r="47" spans="1:8">
-      <c r="A47" s="46"/>
-      <c r="B47" s="32" t="s">
+      <c r="A47" s="37"/>
+      <c r="B47" s="40" t="s">
         <v>14</v>
       </c>
       <c r="C47" s="11" t="s">
         <v>15</v>
       </c>
       <c r="D47" s="16"/>
-      <c r="F47" s="32" t="s">
-        <v>152</v>
+      <c r="F47" s="40" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="48" spans="1:8">
-      <c r="A48" s="46"/>
-      <c r="B48" s="32"/>
+      <c r="A48" s="37"/>
+      <c r="B48" s="40"/>
       <c r="C48" s="5" t="s">
         <v>20</v>
       </c>
       <c r="D48" s="16"/>
-      <c r="F48" s="32"/>
+      <c r="F48" s="40"/>
     </row>
     <row r="49" spans="1:8">
-      <c r="A49" s="46"/>
-      <c r="B49" s="32" t="s">
+      <c r="A49" s="37"/>
+      <c r="B49" s="40" t="s">
         <v>13</v>
       </c>
       <c r="C49" s="11" t="s">
         <v>15</v>
       </c>
       <c r="D49" s="16"/>
-      <c r="F49" s="32" t="s">
-        <v>153</v>
+      <c r="F49" s="40" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="50" spans="1:8">
-      <c r="A50" s="46"/>
-      <c r="B50" s="32"/>
+      <c r="A50" s="37"/>
+      <c r="B50" s="40"/>
       <c r="C50" s="5" t="s">
         <v>21</v>
       </c>
       <c r="D50" s="16"/>
-      <c r="F50" s="32"/>
+      <c r="F50" s="40"/>
     </row>
     <row r="51" spans="1:8">
       <c r="D51" s="16"/>
@@ -2191,7 +2264,7 @@
     </row>
     <row r="53" spans="1:8" s="7" customFormat="1">
       <c r="A53" s="13" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B53" s="8"/>
       <c r="C53" s="8"/>
@@ -2201,10 +2274,10 @@
       <c r="G53" s="8"/>
     </row>
     <row r="54" spans="1:8">
-      <c r="A54" s="36" t="s">
+      <c r="A54" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="B54" s="35" t="s">
+      <c r="B54" s="38" t="s">
         <v>12</v>
       </c>
       <c r="C54" s="23" t="s">
@@ -2216,18 +2289,18 @@
       <c r="E54" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="F54" s="32" t="s">
-        <v>151</v>
+      <c r="F54" s="40" t="s">
+        <v>149</v>
       </c>
       <c r="H54" s="5" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="55" spans="1:8">
-      <c r="A55" s="36"/>
-      <c r="B55" s="34"/>
+      <c r="A55" s="41"/>
+      <c r="B55" s="39"/>
       <c r="C55" s="23" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D55" s="23" t="s">
         <v>17</v>
@@ -2235,48 +2308,48 @@
       <c r="E55" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="F55" s="32"/>
+      <c r="F55" s="40"/>
       <c r="H55" s="6" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="56" spans="1:8">
-      <c r="A56" s="36"/>
-      <c r="B56" s="34"/>
+      <c r="A56" s="41"/>
+      <c r="B56" s="39"/>
       <c r="C56" s="23" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D56" s="23" t="s">
         <v>17</v>
       </c>
       <c r="E56" s="12" t="s">
-        <v>149</v>
-      </c>
-      <c r="F56" s="32"/>
+        <v>147</v>
+      </c>
+      <c r="F56" s="40"/>
       <c r="H56" s="6" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="57" spans="1:8">
-      <c r="A57" s="36"/>
-      <c r="B57" s="34"/>
+      <c r="A57" s="41"/>
+      <c r="B57" s="39"/>
       <c r="C57" s="19" t="s">
         <v>35</v>
       </c>
       <c r="D57" s="23" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="E57" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="F57" s="32"/>
+      <c r="F57" s="40"/>
       <c r="H57" s="6" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="58" spans="1:8">
-      <c r="A58" s="36"/>
-      <c r="B58" s="34"/>
+      <c r="A58" s="41"/>
+      <c r="B58" s="39"/>
       <c r="C58" s="23" t="s">
         <v>25</v>
       </c>
@@ -2284,14 +2357,14 @@
         <v>17</v>
       </c>
       <c r="E58" s="12"/>
-      <c r="F58" s="32"/>
+      <c r="F58" s="40"/>
       <c r="H58" s="6" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="59" spans="1:8">
-      <c r="A59" s="36"/>
-      <c r="B59" s="34"/>
+      <c r="A59" s="41"/>
+      <c r="B59" s="39"/>
       <c r="C59" s="23" t="s">
         <v>26</v>
       </c>
@@ -2301,36 +2374,36 @@
       <c r="E59" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="F59" s="32"/>
+      <c r="F59" s="40"/>
       <c r="H59" s="6" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="60" spans="1:8">
-      <c r="A60" s="36"/>
-      <c r="B60" s="35" t="s">
+      <c r="A60" s="41"/>
+      <c r="B60" s="38" t="s">
         <v>14</v>
       </c>
       <c r="C60" s="11" t="s">
         <v>15</v>
       </c>
       <c r="D60" s="12"/>
-      <c r="F60" s="32" t="s">
-        <v>152</v>
+      <c r="F60" s="40" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="61" spans="1:8">
-      <c r="A61" s="36"/>
-      <c r="B61" s="35"/>
+      <c r="A61" s="41"/>
+      <c r="B61" s="38"/>
       <c r="C61" s="5" t="s">
         <v>20</v>
       </c>
       <c r="D61" s="12"/>
-      <c r="F61" s="32"/>
+      <c r="F61" s="40"/>
     </row>
     <row r="62" spans="1:8">
-      <c r="A62" s="36"/>
-      <c r="B62" s="34" t="s">
+      <c r="A62" s="41"/>
+      <c r="B62" s="39" t="s">
         <v>13</v>
       </c>
       <c r="C62" s="12" t="s">
@@ -2339,21 +2412,21 @@
       <c r="D62" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="F62" s="32" t="s">
-        <v>153</v>
+      <c r="F62" s="40" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="63" spans="1:8">
-      <c r="A63" s="36"/>
-      <c r="B63" s="34"/>
+      <c r="A63" s="41"/>
+      <c r="B63" s="39"/>
       <c r="C63" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="F63" s="32"/>
+      <c r="F63" s="40"/>
     </row>
     <row r="66" spans="1:8" s="7" customFormat="1">
       <c r="A66" s="13" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B66" s="8"/>
       <c r="C66" s="8"/>
@@ -2363,71 +2436,71 @@
       <c r="G66" s="8"/>
     </row>
     <row r="67" spans="1:8">
-      <c r="A67" s="46" t="s">
+      <c r="A67" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="B67" s="35" t="s">
+      <c r="B67" s="38" t="s">
         <v>12</v>
       </c>
       <c r="C67" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="F67" s="32" t="s">
-        <v>151</v>
+      <c r="F67" s="40" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="68" spans="1:8">
-      <c r="A68" s="46"/>
-      <c r="B68" s="34"/>
+      <c r="A68" s="37"/>
+      <c r="B68" s="39"/>
       <c r="C68" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="F68" s="32"/>
+      <c r="F68" s="40"/>
     </row>
     <row r="69" spans="1:8">
-      <c r="A69" s="46"/>
-      <c r="B69" s="34" t="s">
+      <c r="A69" s="37"/>
+      <c r="B69" s="39" t="s">
         <v>14</v>
       </c>
       <c r="C69" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="F69" s="32" t="s">
-        <v>152</v>
+      <c r="F69" s="40" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="70" spans="1:8">
-      <c r="A70" s="46"/>
-      <c r="B70" s="34"/>
+      <c r="A70" s="37"/>
+      <c r="B70" s="39"/>
       <c r="C70" s="5" t="s">
         <v>20</v>
       </c>
       <c r="D70" s="12"/>
-      <c r="F70" s="32"/>
+      <c r="F70" s="40"/>
     </row>
     <row r="71" spans="1:8">
-      <c r="A71" s="46"/>
-      <c r="B71" s="34" t="s">
+      <c r="A71" s="37"/>
+      <c r="B71" s="39" t="s">
         <v>13</v>
       </c>
       <c r="C71" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="F71" s="32" t="s">
-        <v>153</v>
+      <c r="F71" s="40" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="72" spans="1:8">
       <c r="A72" s="21"/>
-      <c r="B72" s="34"/>
+      <c r="B72" s="39"/>
       <c r="C72" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="F72" s="32"/>
+      <c r="F72" s="40"/>
     </row>
     <row r="75" spans="1:8" s="7" customFormat="1">
       <c r="A75" s="13" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B75" s="8"/>
       <c r="C75" s="8"/>
@@ -2437,94 +2510,144 @@
       <c r="G75" s="8"/>
     </row>
     <row r="76" spans="1:8">
-      <c r="A76" s="36" t="s">
+      <c r="A76" s="41" t="s">
         <v>32</v>
       </c>
-      <c r="B76" s="35" t="s">
+      <c r="B76" s="53" t="s">
         <v>12</v>
       </c>
       <c r="C76" s="23" t="s">
         <v>37</v>
       </c>
       <c r="D76" s="24" t="s">
-        <v>186</v>
-      </c>
-      <c r="F76" s="32" t="s">
-        <v>151</v>
-      </c>
-      <c r="H76" s="33" t="s">
+        <v>182</v>
+      </c>
+      <c r="F76" s="45" t="s">
+        <v>149</v>
+      </c>
+      <c r="H76" s="45" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="77" spans="1:8">
-      <c r="A77" s="36"/>
-      <c r="B77" s="35"/>
+      <c r="A77" s="41"/>
+      <c r="B77" s="53"/>
       <c r="C77" s="23" t="s">
         <v>36</v>
       </c>
       <c r="D77" s="19" t="s">
-        <v>182</v>
-      </c>
-      <c r="F77" s="32"/>
-      <c r="H77" s="33"/>
+        <v>191</v>
+      </c>
+      <c r="F77" s="45"/>
+      <c r="H77" s="45"/>
     </row>
     <row r="78" spans="1:8">
-      <c r="A78" s="36"/>
-      <c r="B78" s="34" t="s">
+      <c r="A78" s="41"/>
+      <c r="B78" s="53"/>
+      <c r="C78" s="34" t="s">
+        <v>37</v>
+      </c>
+      <c r="D78" s="18" t="s">
+        <v>192</v>
+      </c>
+      <c r="E78" s="18" t="s">
+        <v>185</v>
+      </c>
+      <c r="F78" s="45"/>
+      <c r="G78" s="32"/>
+      <c r="H78" s="33"/>
+    </row>
+    <row r="79" spans="1:8">
+      <c r="A79" s="41"/>
+      <c r="B79" s="39" t="s">
         <v>14</v>
       </c>
-      <c r="C78" s="11" t="s">
+      <c r="C79" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="F78" s="32" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8">
-      <c r="A79" s="36"/>
-      <c r="B79" s="34"/>
-      <c r="C79" s="5" t="s">
+      <c r="F79" s="40" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
+      <c r="A80" s="41"/>
+      <c r="B80" s="39"/>
+      <c r="C80" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="D79" s="12"/>
-      <c r="F79" s="32"/>
-    </row>
-    <row r="80" spans="1:8">
-      <c r="A80" s="36"/>
-      <c r="B80" s="34" t="s">
+      <c r="D80" s="12"/>
+      <c r="F80" s="40"/>
+    </row>
+    <row r="81" spans="1:6">
+      <c r="A81" s="41"/>
+      <c r="B81" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="C80" s="12" t="s">
+      <c r="C81" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="F80" s="32" t="s">
+      <c r="F81" s="40" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
+      <c r="A82" s="41"/>
+      <c r="B82" s="39"/>
+      <c r="C82" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F82" s="40"/>
+    </row>
+    <row r="85" spans="1:6">
+      <c r="A85" s="18" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="81" spans="1:6">
-      <c r="A81" s="36"/>
-      <c r="B81" s="34"/>
-      <c r="C81" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="F81" s="32"/>
-    </row>
-    <row r="84" spans="1:6">
-      <c r="A84" s="18" t="s">
+      <c r="B85" s="18"/>
+      <c r="C85" s="18" t="s">
         <v>155</v>
       </c>
-      <c r="B84" s="18"/>
-      <c r="C84" s="18" t="s">
-        <v>157</v>
-      </c>
-      <c r="D84" s="18"/>
-      <c r="E84" s="18"/>
-      <c r="F84" s="18" t="s">
-        <v>156</v>
+      <c r="D85" s="18"/>
+      <c r="E85" s="18"/>
+      <c r="F85" s="18" t="s">
+        <v>154</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="50">
+    <mergeCell ref="F25:F30"/>
+    <mergeCell ref="F19:F24"/>
+    <mergeCell ref="F71:F72"/>
+    <mergeCell ref="B76:B78"/>
+    <mergeCell ref="F76:F78"/>
+    <mergeCell ref="B81:B82"/>
+    <mergeCell ref="A76:A82"/>
+    <mergeCell ref="F47:F48"/>
+    <mergeCell ref="F44:F46"/>
+    <mergeCell ref="F79:F80"/>
+    <mergeCell ref="F81:F82"/>
+    <mergeCell ref="B79:B80"/>
+    <mergeCell ref="B19:B24"/>
+    <mergeCell ref="B25:B30"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="A35:A40"/>
+    <mergeCell ref="A17:A31"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="H4:H5"/>
+    <mergeCell ref="H76:H77"/>
+    <mergeCell ref="H37:H38"/>
+    <mergeCell ref="H44:H46"/>
+    <mergeCell ref="F54:F59"/>
+    <mergeCell ref="F60:F61"/>
+    <mergeCell ref="F62:F63"/>
+    <mergeCell ref="F69:F70"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="F49:F50"/>
+    <mergeCell ref="H35:H36"/>
+    <mergeCell ref="F39:F40"/>
+    <mergeCell ref="F67:F68"/>
+    <mergeCell ref="F37:F38"/>
+    <mergeCell ref="F35:F36"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="A3:E3"/>
     <mergeCell ref="A67:A71"/>
@@ -2540,41 +2663,7 @@
     <mergeCell ref="A44:A50"/>
     <mergeCell ref="A54:A63"/>
     <mergeCell ref="A2:E2"/>
-    <mergeCell ref="H4:H5"/>
-    <mergeCell ref="H76:H77"/>
-    <mergeCell ref="H37:H38"/>
-    <mergeCell ref="H44:H46"/>
-    <mergeCell ref="F54:F59"/>
-    <mergeCell ref="F60:F61"/>
-    <mergeCell ref="F62:F63"/>
-    <mergeCell ref="F69:F70"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="F49:F50"/>
     <mergeCell ref="A7:A13"/>
-    <mergeCell ref="H35:H36"/>
-    <mergeCell ref="F39:F40"/>
-    <mergeCell ref="F76:F77"/>
-    <mergeCell ref="F67:F68"/>
-    <mergeCell ref="B19:B24"/>
-    <mergeCell ref="B25:B30"/>
-    <mergeCell ref="B35:B36"/>
-    <mergeCell ref="A35:A40"/>
-    <mergeCell ref="A17:A31"/>
-    <mergeCell ref="B37:B38"/>
-    <mergeCell ref="B39:B40"/>
-    <mergeCell ref="B80:B81"/>
-    <mergeCell ref="B76:B77"/>
-    <mergeCell ref="A76:A81"/>
-    <mergeCell ref="F47:F48"/>
-    <mergeCell ref="F44:F46"/>
-    <mergeCell ref="F78:F79"/>
-    <mergeCell ref="F80:F81"/>
-    <mergeCell ref="B78:B79"/>
-    <mergeCell ref="F37:F38"/>
-    <mergeCell ref="F35:F36"/>
-    <mergeCell ref="F25:F30"/>
-    <mergeCell ref="F19:F24"/>
-    <mergeCell ref="F71:F72"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2584,10 +2673,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B106"/>
+  <dimension ref="A1:B107"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="A39" sqref="A39"/>
+    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="A90" sqref="A90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -2597,64 +2686,64 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="47" t="s">
+      <c r="A1" s="50" t="s">
+        <v>95</v>
+      </c>
+      <c r="B1" s="50"/>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="51" t="s">
         <v>96</v>
       </c>
-      <c r="B1" s="47"/>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="48" t="s">
-        <v>97</v>
-      </c>
-      <c r="B2" s="49"/>
+      <c r="B2" s="52"/>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="49"/>
-      <c r="B3" s="49"/>
+      <c r="A3" s="52"/>
+      <c r="B3" s="52"/>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -2709,28 +2798,28 @@
     </row>
     <row r="30" spans="1:2">
       <c r="A30" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B31" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B32" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -2760,10 +2849,10 @@
     </row>
     <row r="44" spans="1:2">
       <c r="A44" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="B44" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -2778,7 +2867,7 @@
     </row>
     <row r="49" spans="1:1">
       <c r="A49" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="50" spans="1:1">
@@ -2893,86 +2982,86 @@
     </row>
     <row r="86" spans="1:2">
       <c r="A86" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B86" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="87" spans="1:2">
       <c r="A87" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B87" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="88" spans="1:2">
       <c r="A88" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
     </row>
     <row r="89" spans="1:2">
       <c r="A89" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2" s="2" customFormat="1">
-      <c r="A91" s="2" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2">
-      <c r="A92" t="s">
-        <v>111</v>
-      </c>
-      <c r="B92" t="s">
-        <v>84</v>
+        <v>181</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2">
+      <c r="A90" s="54" t="s">
+        <v>195</v>
+      </c>
+      <c r="B90" s="55" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" s="2" customFormat="1">
+      <c r="A92" s="2" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="93" spans="1:2">
       <c r="A93" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="B93" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="94" spans="1:2">
       <c r="A94" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B94" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="95" spans="1:2">
       <c r="A95" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B95" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="97" spans="1:2">
-      <c r="A97" t="s">
-        <v>109</v>
-      </c>
-      <c r="B97" t="s">
-        <v>88</v>
+        <v>85</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2">
+      <c r="A96" t="s">
+        <v>111</v>
+      </c>
+      <c r="B96" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="98" spans="1:2">
       <c r="A98" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B98" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="99" spans="1:2">
       <c r="A99" t="s">
-        <v>81</v>
+        <v>103</v>
       </c>
       <c r="B99" t="s">
         <v>87</v>
@@ -2980,36 +3069,44 @@
     </row>
     <row r="100" spans="1:2">
       <c r="A100" t="s">
-        <v>82</v>
+        <v>194</v>
       </c>
       <c r="B100" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="103" spans="1:2" s="2" customFormat="1">
-      <c r="A103" s="2" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="104" spans="1:2">
-      <c r="A104" t="s">
-        <v>172</v>
-      </c>
-      <c r="B104" t="s">
-        <v>175</v>
+        <v>86</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2">
+      <c r="A101" t="s">
+        <v>81</v>
+      </c>
+      <c r="B101" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" s="2" customFormat="1">
+      <c r="A104" s="2" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="105" spans="1:2">
       <c r="A105" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="B105" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
     </row>
     <row r="106" spans="1:2">
       <c r="A106" t="s">
-        <v>177</v>
+        <v>172</v>
+      </c>
+      <c r="B106" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2">
+      <c r="A107" t="s">
+        <v>175</v>
       </c>
     </row>
   </sheetData>
